--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -40,6 +40,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>- Ý tưởng:</t>
     </r>
     <r>
@@ -72,100 +80,58 @@
     <t>1. Quản lý tài khoản</t>
   </si>
   <si>
-    <t>+ Đăng ký sử dụng (Tương ứng với đối tượng người dùng)</t>
+    <t>+ Đăng ký sử dụng (hội viên)</t>
   </si>
   <si>
     <t>+ Đăng nhập sử dụng: Mỗi đối tượng có các chức năng khác nhau</t>
   </si>
   <si>
-    <t>+ Sử dụng/ cập nhật trang cá nhân: Ghi Thông tin cá nhân (Sở thích, đối tượng hướng đến,…)</t>
+    <t>+ Xem thông tin cá nhân</t>
   </si>
   <si>
-    <t>+ Phân loại trạng thái người dùng: FA &gt; Đang tìm hiểu &gt; Đang hẹn hò &gt; Kết hôn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FA (độc thân) : Sử dụng trang cá nhân, Tìm kiếm bạn, gửi yêu cầu muốn tìm hiểu/ chấp nhận yêu cầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đang tìm hiểu: Trò chuyện, Gửi các yêu cầu sự kiện,…</t>
-  </si>
-  <si>
-    <t>Hẹn hò/ Kết hôn :  Sử dụng chức năng "Nhật ký" (Đóng các chức năng yêu cầu tìm hiểu, chỉ có thể follow)</t>
+    <t>+ Chỉnh sửa thông tin cá nhân (hội viên)</t>
   </si>
   <si>
     <t>2. Sử dụng tài khoản</t>
   </si>
   <si>
-    <t>a. Đối tượng độc thân:</t>
+    <t>a. Hội viên:</t>
   </si>
   <si>
-    <t>+ Chức năng tìm kiếm</t>
+    <t>- Chức năng xem lịch sử chơi</t>
   </si>
   <si>
-    <t>Tìm kiếm thông thường (địa điểm, tên, tuổi, …)</t>
+    <t>+ Tìm kiếm lịch sử theo ngày hoặc tháng hoặc năm</t>
   </si>
   <si>
-    <t>Tìm kiếm Tử Vi : Tử vi Phương Đông(12 con giáp) , Phương Tây (12 cung Hoàng đạo)</t>
+    <t>- Chức năng xem thông tin của bàn đang chơi (số giờ đã chơi, thông tin hóa đơn,...)</t>
   </si>
   <si>
-    <t xml:space="preserve">+ Chức năng gửi "Yêu cầu tìm hiểu" / Chấp nhận yêu cầu </t>
+    <t>- Chức năng xem số giờ chơi đã tích lũy và cấp độ(VD: đồng, bạc, vàng,...) hiện tại</t>
   </si>
   <si>
-    <t xml:space="preserve">Chức năng gửi: Người dùng có thể Tìm kiếm, Xem thông tin rồi gửi yêu cầu </t>
+    <t>b. Nhân viên:</t>
   </si>
   <si>
-    <t>Chức năng Chấp nhận: Xem thông tin người gửi yêu cầu trước khi chấp nhận</t>
+    <t>- Xem danh sách bàn (chỉ xem được những bàn không bị lock)</t>
   </si>
   <si>
-    <t>Sau khi 2 bên chấp nhận tìm hiểu sẽ chuyển Người dùng về trạng thái "Đang tìm hiểu"</t>
+    <t>+ Mở bàn (bàn chỉ được mở cho khách nếu hiện tại bàn không được chơi và bàn không bị lock và hóa đơn mới nhất của bàn đã được thanh toán)</t>
   </si>
   <si>
-    <t>+ Trò chuyện ngẫu nhiên: 2 người bất kì sẽ được sắp xếp nói chuyện với nhau giấu mặt, qui định thời gian trò chuyện (có thể gia hạn thời gian)</t>
+    <t>+ Xem hóa đơn mới nhất của bàn</t>
   </si>
   <si>
-    <t>Sau khi trò chuyện sẽ có ghi lại cảm xúc sau khi trò chuyện, đánh giá --&gt; quyết định có muốn tìm hiểu thêm hay không?</t>
+    <t>. Cập nhật hóa đơn (Thêm món ăn, cập nhật lại hội viên,..., nhân viên mở bàn nào thì mới cập nhật được hóa đơn của bàn đó, admin có thể cập nhật hóa đơn thay cho nhân viên, nếu bàn đang mở thì mới cập nhật được)</t>
   </si>
   <si>
-    <t>+ Hỏi đáp (dạng của Confession): người dùng gặp phải một vấn đề trong chuyện bạn bè hoặc tình cảm thì có thể gửi câu hỏi (hoặc đoạn tâm sự)</t>
+    <t>. Xác nhận khách hàng đã thanh toán hóa đơn khi bàn đã đóng (chỉ nhân viên mở/đóng bàn này hoặc admin mới có thể xác nhận)</t>
   </si>
   <si>
-    <t>Người dùng khác có thể xem và trả lời vấn đề</t>
-  </si>
-  <si>
-    <t>b. Đối tượng Đang tìm hiểu: Thêm một số chức năng:</t>
-  </si>
-  <si>
-    <t>+ Chức năng trò chuyện, nhắn tin</t>
-  </si>
-  <si>
-    <t>c. Đối tượng Hẹn hò/Đã kết hôn: Thêm một số chức năng:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Chức năng "Nhật ký" bao gồm: Tính ngày yêu/kết hôn; Ghi lại cảm xúc ; Lưu, nhắc nhở sự kiện </t>
-  </si>
-  <si>
-    <t>+ Không còn chức năng tìm kiếm, xem, gửi "yêu cầu tìm hiểu"</t>
-  </si>
-  <si>
-    <t>+ Tham gia sự kiện Trắc nghiệm tình yêu: sẽ có 1 bộ câu hỏi trắc nghiệm dành cho các cặp đôi để kiểm tra độ ăn ý và hiểu nhau giữa 2 người</t>
+    <t>+ Đóng bàn (nhân viên thực hiện đóng bàn khi khách hàng yêu cầu tính tiền bàn, sau khi đóng bàn thì không thể cập nhật hóa đơn cho bàn được nữa, chỉ nhân viên mở bàn mới đóng được bàn đó, admin có thể đóng bàn thay cho nhân viên)</t>
   </si>
   <si>
     <t>- Chức năng của Admin:</t>
-  </si>
-  <si>
-    <t>+ Quản lý User:</t>
-  </si>
-  <si>
-    <t>Thống kê User: thống kê số User đăng ký mới trong một tháng</t>
-  </si>
-  <si>
-    <t>Thống kê số lượng cặp đôi hẹn hò thành công trong mỗi tháng</t>
-  </si>
-  <si>
-    <t>Phân quyền User</t>
-  </si>
-  <si>
-    <t>+ Quản lý Couple: thống kê bao nhiêu couple thành công</t>
   </si>
   <si>
     <t>- Kỹ thuật:</t>
@@ -1425,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -1972,9 +1938,7 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2000,11 +1964,11 @@
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:26">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2030,11 +1994,11 @@
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:26">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2060,8 +2024,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:26">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2088,11 +2054,11 @@
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:26">
       <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2118,10 +2084,10 @@
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:26">
       <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2148,7 +2114,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:26">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2178,11 +2144,11 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:26">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2208,11 +2174,11 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:26">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2236,11 +2202,13 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" spans="1:26">
+    <row r="28" ht="13" customHeight="1" spans="1:26">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2266,11 +2234,11 @@
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:26">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="12" t="s">
-        <v>22</v>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="12" t="s">
+        <v>23</v>
       </c>
-      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2294,14 +2262,13 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A30" s="5"/>
+    <row r="30" ht="14.25" customHeight="1" spans="2:27">
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>23</v>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2323,15 +2290,15 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A31" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" ht="14.4" spans="2:27">
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>24</v>
+      <c r="C31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2353,13 +2320,14 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:26">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>25</v>
+      <c r="D32" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2384,44 +2352,14 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:26">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2444,12 +2382,10 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:26">
+    <row r="35" customHeight="1" spans="1:26">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2474,15 +2410,15 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1" spans="1:26">
+    <row r="36" customHeight="1" spans="1:26">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2507,7 +2443,9 @@
     <row r="37" ht="14.25" customHeight="1" spans="1:26">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2534,10 +2472,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:26">
       <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2565,9 +2503,7 @@
     <row r="39" ht="14.25" customHeight="1" spans="1:26">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2622,9 +2558,7 @@
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:26">
       <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2653,9 +2587,7 @@
     <row r="42" ht="14.25" customHeight="1" spans="1:26">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2683,9 +2615,7 @@
     <row r="43" ht="14.25" customHeight="1" spans="1:26">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2713,9 +2643,7 @@
     <row r="44" ht="14.25" customHeight="1" spans="1:26">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2770,9 +2698,7 @@
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:26">
       <c r="A46" s="5"/>
-      <c r="B46" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2801,9 +2727,7 @@
     <row r="47" ht="14.25" customHeight="1" spans="1:26">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2832,9 +2756,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2862,9 +2784,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2892,9 +2812,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2921,9 +2839,7 @@
     <row r="51" ht="14.25" customHeight="1" spans="1:26">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2976,11 +2892,9 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" customHeight="1" spans="1:26">
+    <row r="53" ht="14.25" customHeight="1" spans="1:26">
       <c r="A53" s="5"/>
-      <c r="B53" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3009,9 +2923,7 @@
     <row r="54" ht="14.25" customHeight="1" spans="1:26">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -3039,9 +2951,7 @@
     <row r="55" ht="14.25" customHeight="1" spans="1:26">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -29049,482 +28959,6 @@
       <c r="X983" s="5"/>
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
-    </row>
-    <row r="984" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A984" s="5"/>
-      <c r="B984" s="5"/>
-      <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
-      <c r="E984" s="5"/>
-      <c r="F984" s="5"/>
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
-      <c r="I984" s="5"/>
-      <c r="J984" s="5"/>
-      <c r="K984" s="5"/>
-      <c r="L984" s="5"/>
-      <c r="M984" s="5"/>
-      <c r="N984" s="5"/>
-      <c r="O984" s="5"/>
-      <c r="P984" s="5"/>
-      <c r="Q984" s="5"/>
-      <c r="R984" s="5"/>
-      <c r="S984" s="5"/>
-      <c r="T984" s="5"/>
-      <c r="U984" s="5"/>
-      <c r="V984" s="5"/>
-      <c r="W984" s="5"/>
-      <c r="X984" s="5"/>
-      <c r="Y984" s="5"/>
-      <c r="Z984" s="5"/>
-    </row>
-    <row r="985" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A985" s="5"/>
-      <c r="B985" s="5"/>
-      <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
-      <c r="E985" s="5"/>
-      <c r="F985" s="5"/>
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
-      <c r="I985" s="5"/>
-      <c r="J985" s="5"/>
-      <c r="K985" s="5"/>
-      <c r="L985" s="5"/>
-      <c r="M985" s="5"/>
-      <c r="N985" s="5"/>
-      <c r="O985" s="5"/>
-      <c r="P985" s="5"/>
-      <c r="Q985" s="5"/>
-      <c r="R985" s="5"/>
-      <c r="S985" s="5"/>
-      <c r="T985" s="5"/>
-      <c r="U985" s="5"/>
-      <c r="V985" s="5"/>
-      <c r="W985" s="5"/>
-      <c r="X985" s="5"/>
-      <c r="Y985" s="5"/>
-      <c r="Z985" s="5"/>
-    </row>
-    <row r="986" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A986" s="5"/>
-      <c r="B986" s="5"/>
-      <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
-      <c r="E986" s="5"/>
-      <c r="F986" s="5"/>
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
-      <c r="I986" s="5"/>
-      <c r="J986" s="5"/>
-      <c r="K986" s="5"/>
-      <c r="L986" s="5"/>
-      <c r="M986" s="5"/>
-      <c r="N986" s="5"/>
-      <c r="O986" s="5"/>
-      <c r="P986" s="5"/>
-      <c r="Q986" s="5"/>
-      <c r="R986" s="5"/>
-      <c r="S986" s="5"/>
-      <c r="T986" s="5"/>
-      <c r="U986" s="5"/>
-      <c r="V986" s="5"/>
-      <c r="W986" s="5"/>
-      <c r="X986" s="5"/>
-      <c r="Y986" s="5"/>
-      <c r="Z986" s="5"/>
-    </row>
-    <row r="987" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A987" s="5"/>
-      <c r="B987" s="5"/>
-      <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
-      <c r="E987" s="5"/>
-      <c r="F987" s="5"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
-      <c r="I987" s="5"/>
-      <c r="J987" s="5"/>
-      <c r="K987" s="5"/>
-      <c r="L987" s="5"/>
-      <c r="M987" s="5"/>
-      <c r="N987" s="5"/>
-      <c r="O987" s="5"/>
-      <c r="P987" s="5"/>
-      <c r="Q987" s="5"/>
-      <c r="R987" s="5"/>
-      <c r="S987" s="5"/>
-      <c r="T987" s="5"/>
-      <c r="U987" s="5"/>
-      <c r="V987" s="5"/>
-      <c r="W987" s="5"/>
-      <c r="X987" s="5"/>
-      <c r="Y987" s="5"/>
-      <c r="Z987" s="5"/>
-    </row>
-    <row r="988" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A988" s="5"/>
-      <c r="B988" s="5"/>
-      <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
-      <c r="E988" s="5"/>
-      <c r="F988" s="5"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
-      <c r="I988" s="5"/>
-      <c r="J988" s="5"/>
-      <c r="K988" s="5"/>
-      <c r="L988" s="5"/>
-      <c r="M988" s="5"/>
-      <c r="N988" s="5"/>
-      <c r="O988" s="5"/>
-      <c r="P988" s="5"/>
-      <c r="Q988" s="5"/>
-      <c r="R988" s="5"/>
-      <c r="S988" s="5"/>
-      <c r="T988" s="5"/>
-      <c r="U988" s="5"/>
-      <c r="V988" s="5"/>
-      <c r="W988" s="5"/>
-      <c r="X988" s="5"/>
-      <c r="Y988" s="5"/>
-      <c r="Z988" s="5"/>
-    </row>
-    <row r="989" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A989" s="5"/>
-      <c r="B989" s="5"/>
-      <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
-      <c r="E989" s="5"/>
-      <c r="F989" s="5"/>
-      <c r="G989" s="5"/>
-      <c r="H989" s="5"/>
-      <c r="I989" s="5"/>
-      <c r="J989" s="5"/>
-      <c r="K989" s="5"/>
-      <c r="L989" s="5"/>
-      <c r="M989" s="5"/>
-      <c r="N989" s="5"/>
-      <c r="O989" s="5"/>
-      <c r="P989" s="5"/>
-      <c r="Q989" s="5"/>
-      <c r="R989" s="5"/>
-      <c r="S989" s="5"/>
-      <c r="T989" s="5"/>
-      <c r="U989" s="5"/>
-      <c r="V989" s="5"/>
-      <c r="W989" s="5"/>
-      <c r="X989" s="5"/>
-      <c r="Y989" s="5"/>
-      <c r="Z989" s="5"/>
-    </row>
-    <row r="990" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A990" s="5"/>
-      <c r="B990" s="5"/>
-      <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
-      <c r="E990" s="5"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="5"/>
-      <c r="I990" s="5"/>
-      <c r="J990" s="5"/>
-      <c r="K990" s="5"/>
-      <c r="L990" s="5"/>
-      <c r="M990" s="5"/>
-      <c r="N990" s="5"/>
-      <c r="O990" s="5"/>
-      <c r="P990" s="5"/>
-      <c r="Q990" s="5"/>
-      <c r="R990" s="5"/>
-      <c r="S990" s="5"/>
-      <c r="T990" s="5"/>
-      <c r="U990" s="5"/>
-      <c r="V990" s="5"/>
-      <c r="W990" s="5"/>
-      <c r="X990" s="5"/>
-      <c r="Y990" s="5"/>
-      <c r="Z990" s="5"/>
-    </row>
-    <row r="991" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A991" s="5"/>
-      <c r="B991" s="5"/>
-      <c r="C991" s="5"/>
-      <c r="D991" s="5"/>
-      <c r="E991" s="5"/>
-      <c r="F991" s="5"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="5"/>
-      <c r="I991" s="5"/>
-      <c r="J991" s="5"/>
-      <c r="K991" s="5"/>
-      <c r="L991" s="5"/>
-      <c r="M991" s="5"/>
-      <c r="N991" s="5"/>
-      <c r="O991" s="5"/>
-      <c r="P991" s="5"/>
-      <c r="Q991" s="5"/>
-      <c r="R991" s="5"/>
-      <c r="S991" s="5"/>
-      <c r="T991" s="5"/>
-      <c r="U991" s="5"/>
-      <c r="V991" s="5"/>
-      <c r="W991" s="5"/>
-      <c r="X991" s="5"/>
-      <c r="Y991" s="5"/>
-      <c r="Z991" s="5"/>
-    </row>
-    <row r="992" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A992" s="5"/>
-      <c r="B992" s="5"/>
-      <c r="C992" s="5"/>
-      <c r="D992" s="5"/>
-      <c r="E992" s="5"/>
-      <c r="F992" s="5"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="5"/>
-      <c r="I992" s="5"/>
-      <c r="J992" s="5"/>
-      <c r="K992" s="5"/>
-      <c r="L992" s="5"/>
-      <c r="M992" s="5"/>
-      <c r="N992" s="5"/>
-      <c r="O992" s="5"/>
-      <c r="P992" s="5"/>
-      <c r="Q992" s="5"/>
-      <c r="R992" s="5"/>
-      <c r="S992" s="5"/>
-      <c r="T992" s="5"/>
-      <c r="U992" s="5"/>
-      <c r="V992" s="5"/>
-      <c r="W992" s="5"/>
-      <c r="X992" s="5"/>
-      <c r="Y992" s="5"/>
-      <c r="Z992" s="5"/>
-    </row>
-    <row r="993" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A993" s="5"/>
-      <c r="B993" s="5"/>
-      <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
-      <c r="E993" s="5"/>
-      <c r="F993" s="5"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="5"/>
-      <c r="I993" s="5"/>
-      <c r="J993" s="5"/>
-      <c r="K993" s="5"/>
-      <c r="L993" s="5"/>
-      <c r="M993" s="5"/>
-      <c r="N993" s="5"/>
-      <c r="O993" s="5"/>
-      <c r="P993" s="5"/>
-      <c r="Q993" s="5"/>
-      <c r="R993" s="5"/>
-      <c r="S993" s="5"/>
-      <c r="T993" s="5"/>
-      <c r="U993" s="5"/>
-      <c r="V993" s="5"/>
-      <c r="W993" s="5"/>
-      <c r="X993" s="5"/>
-      <c r="Y993" s="5"/>
-      <c r="Z993" s="5"/>
-    </row>
-    <row r="994" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A994" s="5"/>
-      <c r="B994" s="5"/>
-      <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
-      <c r="E994" s="5"/>
-      <c r="F994" s="5"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="5"/>
-      <c r="I994" s="5"/>
-      <c r="J994" s="5"/>
-      <c r="K994" s="5"/>
-      <c r="L994" s="5"/>
-      <c r="M994" s="5"/>
-      <c r="N994" s="5"/>
-      <c r="O994" s="5"/>
-      <c r="P994" s="5"/>
-      <c r="Q994" s="5"/>
-      <c r="R994" s="5"/>
-      <c r="S994" s="5"/>
-      <c r="T994" s="5"/>
-      <c r="U994" s="5"/>
-      <c r="V994" s="5"/>
-      <c r="W994" s="5"/>
-      <c r="X994" s="5"/>
-      <c r="Y994" s="5"/>
-      <c r="Z994" s="5"/>
-    </row>
-    <row r="995" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A995" s="5"/>
-      <c r="B995" s="5"/>
-      <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
-      <c r="E995" s="5"/>
-      <c r="F995" s="5"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="5"/>
-      <c r="I995" s="5"/>
-      <c r="J995" s="5"/>
-      <c r="K995" s="5"/>
-      <c r="L995" s="5"/>
-      <c r="M995" s="5"/>
-      <c r="N995" s="5"/>
-      <c r="O995" s="5"/>
-      <c r="P995" s="5"/>
-      <c r="Q995" s="5"/>
-      <c r="R995" s="5"/>
-      <c r="S995" s="5"/>
-      <c r="T995" s="5"/>
-      <c r="U995" s="5"/>
-      <c r="V995" s="5"/>
-      <c r="W995" s="5"/>
-      <c r="X995" s="5"/>
-      <c r="Y995" s="5"/>
-      <c r="Z995" s="5"/>
-    </row>
-    <row r="996" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="5"/>
-      <c r="G996" s="5"/>
-      <c r="H996" s="5"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-      <c r="N996" s="5"/>
-      <c r="O996" s="5"/>
-      <c r="P996" s="5"/>
-      <c r="Q996" s="5"/>
-      <c r="R996" s="5"/>
-      <c r="S996" s="5"/>
-      <c r="T996" s="5"/>
-      <c r="U996" s="5"/>
-      <c r="V996" s="5"/>
-      <c r="W996" s="5"/>
-      <c r="X996" s="5"/>
-      <c r="Y996" s="5"/>
-      <c r="Z996" s="5"/>
-    </row>
-    <row r="997" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A997" s="5"/>
-      <c r="B997" s="5"/>
-      <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
-      <c r="J997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="L997" s="5"/>
-      <c r="M997" s="5"/>
-      <c r="N997" s="5"/>
-      <c r="O997" s="5"/>
-      <c r="P997" s="5"/>
-      <c r="Q997" s="5"/>
-      <c r="R997" s="5"/>
-      <c r="S997" s="5"/>
-      <c r="T997" s="5"/>
-      <c r="U997" s="5"/>
-      <c r="V997" s="5"/>
-      <c r="W997" s="5"/>
-      <c r="X997" s="5"/>
-      <c r="Y997" s="5"/>
-      <c r="Z997" s="5"/>
-    </row>
-    <row r="998" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-      <c r="R998" s="5"/>
-      <c r="S998" s="5"/>
-      <c r="T998" s="5"/>
-      <c r="U998" s="5"/>
-      <c r="V998" s="5"/>
-      <c r="W998" s="5"/>
-      <c r="X998" s="5"/>
-      <c r="Y998" s="5"/>
-      <c r="Z998" s="5"/>
-    </row>
-    <row r="999" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="5"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="5"/>
-      <c r="O999" s="5"/>
-      <c r="P999" s="5"/>
-      <c r="Q999" s="5"/>
-      <c r="R999" s="5"/>
-      <c r="S999" s="5"/>
-      <c r="T999" s="5"/>
-      <c r="U999" s="5"/>
-      <c r="V999" s="5"/>
-      <c r="W999" s="5"/>
-      <c r="X999" s="5"/>
-      <c r="Y999" s="5"/>
-      <c r="Z999" s="5"/>
-    </row>
-    <row r="1000" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="I1000" s="5"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29558,161 +28992,161 @@
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="2:6">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="2:6">
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="2:6">
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>

--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -65,13 +65,13 @@
     <t>- Đối tượng sử dụng hướng đến:</t>
   </si>
   <si>
-    <t>+ Nhân viên quán/nhân viên: Sử dụng để mở bàn khi khách hàng yêu cầu, cập nhật hóa đơn, xác nhận thanh toán.</t>
+    <t>+ Nhân viên quán (nhân viên): Sử dụng để mở bàn khi khách hàng yêu cầu, cập nhật hóa đơn, xác nhận thanh toán,...</t>
   </si>
   <si>
-    <t xml:space="preserve">+ Hội viên: Sử dụng để xem lịch sử chơi, thông tin bàn đang/đã chơi, số giờ chơi đã tích lũy và cấp độ hội viên hiện tại. </t>
+    <t xml:space="preserve">+ Hội viên: Sử dụng để xem lịch sử chơi, thông tin chơi hiện tại, số giờ chơi đã tích lũy và cấp độ hội viên hiện tại... </t>
   </si>
   <si>
-    <t>+ Admin/chủ quán: quản lý thông tin và xem thông kê doanh thu.</t>
+    <t>+ Admin (chủ quán): quản lý thông tin và xem thông kê doanh thu...</t>
   </si>
   <si>
     <t>- Chức năng của User:</t>
@@ -98,40 +98,203 @@
     <t>a. Hội viên:</t>
   </si>
   <si>
-    <t>- Chức năng xem lịch sử chơi</t>
+    <t>- Chức năng xem lịch sử chơi (những lần đã chơi)</t>
   </si>
   <si>
-    <t>+ Tìm kiếm lịch sử theo ngày hoặc tháng hoặc năm</t>
+    <t>+ Tìm kiếm lịch sử chơi theo ngày (VD: 20/05/2025)</t>
   </si>
   <si>
-    <t>- Chức năng xem thông tin của bàn đang chơi (số giờ đã chơi, thông tin hóa đơn,...)</t>
+    <t>+ Xem hóa đơn của những lần chơi</t>
   </si>
   <si>
-    <t>- Chức năng xem số giờ chơi đã tích lũy và cấp độ(VD: đồng, bạc, vàng,...) hiện tại</t>
+    <r>
+      <t xml:space="preserve">* NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>một lần chơi được tính từ thời điểm vào (mở bàn) -&gt; thời điểm ra (đóng bàn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>- Chức năng xem thông tin đang chơi hiện tại (VD: thời điểm vào, thông tin bàn, số giờ đã chơi,...)</t>
+  </si>
+  <si>
+    <t>+ Xem hóa đơn đang chơi hiện tại</t>
+  </si>
+  <si>
+    <t>* NOTE:</t>
+  </si>
+  <si>
+    <t>- Một hóa đơn chỉ thuộc về một bàn</t>
   </si>
   <si>
     <t>b. Nhân viên:</t>
   </si>
   <si>
-    <t>- Xem danh sách bàn (chỉ xem được những bàn không bị lock)</t>
+    <t>- Chức năng xem danh sách bàn (chỉ những bàn chưa bị lock)</t>
   </si>
   <si>
-    <t>+ Mở bàn (bàn chỉ được mở cho khách nếu hiện tại bàn không được chơi và bàn không bị lock và hóa đơn mới nhất của bàn đã được thanh toán)</t>
+    <t>+ Mở bàn (bắt đầu tính tiền bàn)</t>
   </si>
   <si>
-    <t>+ Xem hóa đơn mới nhất của bàn</t>
+    <t>+ Xem danh sách hóa đơn của một bàn                |</t>
   </si>
   <si>
-    <t>. Cập nhật hóa đơn (Thêm món ăn, cập nhật lại hội viên,..., nhân viên mở bàn nào thì mới cập nhật được hóa đơn của bàn đó, admin có thể cập nhật hóa đơn thay cho nhân viên, nếu bàn đang mở thì mới cập nhật được)</t>
+    <t>. Xem danh sách hóa đơn của mình   | -&gt; cập nhật hóa đơn (hội viên, mặt hàng), xác nhận hóa đơn đã thanh toán</t>
   </si>
   <si>
-    <t>. Xác nhận khách hàng đã thanh toán hóa đơn khi bàn đã đóng (chỉ nhân viên mở/đóng bàn này hoặc admin mới có thể xác nhận)</t>
+    <t>. Xem hóa đơn mới nhất của bàn       |</t>
   </si>
   <si>
-    <t>+ Đóng bàn (nhân viên thực hiện đóng bàn khi khách hàng yêu cầu tính tiền bàn, sau khi đóng bàn thì không thể cập nhật hóa đơn cho bàn được nữa, chỉ nhân viên mở bàn mới đóng được bàn đó, admin có thể đóng bàn thay cho nhân viên)</t>
+    <t>+ Đóng bàn (tính tiền bàn)</t>
+  </si>
+  <si>
+    <t>+ Tìm kiếm bàn</t>
+  </si>
+  <si>
+    <r>
+      <t>* NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Nhân viên tạo hóa đơn thì nhân viên khác không thể thực hiện thay đổi trên hóa đơn đó (các thay đổi như: hội viên, mặt hàng, xác nhận đã thanh toán, tính tiền bàn, trạng thái,...) </t>
+    </r>
+  </si>
+  <si>
+    <t>- Trạng thái hóa đơn bao gồm: đã thanh toán và chưa thanh toán</t>
   </si>
   <si>
     <t>- Chức năng của Admin:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Chức năng xem danh sách bàn (bao gồm cả bàn đã bị lock) </t>
+  </si>
+  <si>
+    <t>+ Xem danh sách hóa đơn của một bàn              |</t>
+  </si>
+  <si>
+    <t>. Xem hóa đơn mới nhất của bàn     | -&gt; cập nhật hóa đơn (hội viên, mặt hàng), xác nhận hóa đơn đã thanh toán</t>
+  </si>
+  <si>
+    <t>. Xem danh sách hóa đơn của minh |</t>
+  </si>
+  <si>
+    <r>
+      <t>* NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Admin có thể thay đổi hóa đơn của bất kỳ ai</t>
+    </r>
+  </si>
+  <si>
+    <t>- Quản lý bàn (bàn bida)</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách bàn (như ở trên)</t>
+  </si>
+  <si>
+    <t>+ Tạo mới bàn</t>
+  </si>
+  <si>
+    <t>+ Cập nhật thông tin bàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Lock (khóa) bàn </t>
+  </si>
+  <si>
+    <t>+ Unlock bàn</t>
+  </si>
+  <si>
+    <t>- Bàn bị lock không thể được đưa vào sử dụng</t>
+  </si>
+  <si>
+    <t>- Sau khi unlock thì bàn có thể được sử dụng bình thường</t>
+  </si>
+  <si>
+    <t>- Quản lý loại bàn</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách loại bàn</t>
+  </si>
+  <si>
+    <t>+ Thêm loại bàn</t>
+  </si>
+  <si>
+    <t>+ Cập nhật thông tin cho loại bàn</t>
+  </si>
+  <si>
+    <t>- Mỗi loại bàn có số tiền/giờ khác nhau</t>
+  </si>
+  <si>
+    <t>- Mỗi bàn phải và chỉ thuộc 1 loại bàn</t>
+  </si>
+  <si>
+    <t>- Quản lý mặt hàng</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách mặt hàng</t>
+  </si>
+  <si>
+    <t>+ Thêm mặt hàng</t>
+  </si>
+  <si>
+    <t>+ Cập nhật thông tin mặt hàng</t>
+  </si>
+  <si>
+    <t>+ Lock mặt hàng</t>
+  </si>
+  <si>
+    <t>+ Unlock mặt hàng</t>
+  </si>
+  <si>
+    <t>- Mặt hàng bị lock sẽ không thể được sử dụng để bán</t>
+  </si>
+  <si>
+    <t>- Quản lý cấp độ hội viên</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách cấp độ hội viên</t>
+  </si>
+  <si>
+    <t>+ Thêm cấp độ hội viên</t>
+  </si>
+  <si>
+    <t>+ Cập nhật thông tin của cấp độ hội viên</t>
+  </si>
+  <si>
+    <t>+ Xóa cấp độ hội viên</t>
+  </si>
+  <si>
+    <t>- Mỗi cấp độ hội viên sẽ tương ứng một mốc số giờ chơi nhất định (VD: cấp độ "đồng" tương ứng 50h chơi, "bạc" - 100h, "vàng" - 500h,...) và các mốc này là khác nhau</t>
+  </si>
+  <si>
+    <t>- Nếu số giờ chơi của hội viên &gt;= số giờ chơi của một cấp độ và không &gt;= số giờ chơi của cấp độ nào nữa thì hội viên sẽ đạt được cấp độ đó</t>
   </si>
   <si>
     <t>- Kỹ thuật:</t>
@@ -918,6 +1081,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA983"/>
+  <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -2085,10 +2249,10 @@
     <row r="24" ht="14.25" customHeight="1" spans="1:26">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2115,10 +2279,10 @@
     <row r="25" ht="14.25" customHeight="1" spans="1:26">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2144,9 +2308,7 @@
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:26">
       <c r="A26" s="5"/>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2176,7 +2338,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2202,12 +2364,12 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" ht="13" customHeight="1" spans="1:26">
+    <row r="28" ht="14.25" customHeight="1" spans="1:26">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2234,11 +2396,9 @@
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:26">
       <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2262,13 +2422,14 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="2:27">
+    <row r="30" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2290,15 +2451,15 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" ht="14.4" spans="2:27">
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="12" t="s">
-        <v>25</v>
+      <c r="C31" s="5"/>
+      <c r="D31" s="12" t="s">
+        <v>23</v>
       </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2320,15 +2481,14 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:26">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2352,13 +2512,18 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
+    <row r="33" customHeight="1" spans="3:3">
+      <c r="C33" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:26">
       <c r="A34" s="5"/>
-      <c r="B34" s="11" t="s">
-        <v>27</v>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2382,11 +2547,13 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" customHeight="1" spans="1:26">
+    <row r="35" ht="14.25" customHeight="1" spans="1:26">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2410,14 +2577,14 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" customHeight="1" spans="1:26">
+    <row r="36" ht="14.25" customHeight="1" spans="1:26">
       <c r="A36" s="5"/>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2442,12 +2609,12 @@
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:26">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2472,11 +2639,11 @@
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:26">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2502,9 +2669,11 @@
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:26">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2530,9 +2699,11 @@
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:26">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2558,10 +2729,12 @@
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:26">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2586,7 +2759,9 @@
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="1:26">
       <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2612,10 +2787,12 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1" spans="1:26">
+    <row r="43" customHeight="1" spans="1:26">
       <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2640,11 +2817,13 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1" spans="1:26">
+    <row r="44" customHeight="1" spans="1:26">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2668,11 +2847,13 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1" spans="1:26">
+    <row r="45" customHeight="1" spans="1:26">
       <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2696,12 +2877,14 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1" spans="1:26">
+    <row r="46" customHeight="1" spans="1:26">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2724,12 +2907,14 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1" spans="1:26">
+    <row r="47" customHeight="1" spans="1:26">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -2752,11 +2937,13 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1" spans="1:26">
+    <row r="48" customHeight="1" spans="1:26">
       <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2780,11 +2967,13 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1" spans="1:26">
+    <row r="49" customHeight="1" spans="1:26">
       <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2808,11 +2997,13 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1" spans="1:26">
+    <row r="50" customHeight="1" spans="1:26">
       <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2836,10 +3027,12 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1" spans="1:26">
+    <row r="51" customHeight="1" spans="1:26">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2864,11 +3057,13 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1" spans="1:26">
+    <row r="52" customHeight="1" spans="1:26">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -2892,11 +3087,13 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1" spans="1:26">
+    <row r="53" customHeight="1" spans="1:26">
       <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -2920,11 +3117,13 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1" spans="1:26">
+    <row r="54" customHeight="1" spans="1:26">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2948,11 +3147,13 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1" spans="1:26">
+    <row r="55" customHeight="1" spans="1:26">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -2976,11 +3177,13 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1" spans="1:26">
+    <row r="56" customHeight="1" spans="1:26">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -3004,11 +3207,13 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1" spans="1:26">
+    <row r="57" customHeight="1" spans="1:26">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -3032,12 +3237,14 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1" spans="1:26">
+    <row r="58" customHeight="1" spans="1:26">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -3060,12 +3267,14 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1" spans="1:26">
+    <row r="59" customHeight="1" spans="1:26">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3088,10 +3297,12 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1" spans="1:26">
+    <row r="60" customHeight="1" spans="1:26">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3116,11 +3327,13 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1" spans="1:26">
+    <row r="61" customHeight="1" spans="1:26">
       <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -3144,11 +3357,13 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1" spans="1:26">
+    <row r="62" customHeight="1" spans="1:26">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3172,11 +3387,13 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1" spans="1:26">
+    <row r="63" customHeight="1" spans="1:26">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -3200,11 +3417,13 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1" spans="1:26">
+    <row r="64" customHeight="1" spans="1:26">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -3228,12 +3447,14 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1" spans="1:26">
+    <row r="65" customHeight="1" spans="1:26">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3256,12 +3477,14 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1" spans="1:26">
+    <row r="66" customHeight="1" spans="1:26">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3284,10 +3507,12 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1" spans="1:26">
+    <row r="67" customHeight="1" spans="1:26">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3312,11 +3537,13 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1" spans="1:26">
+    <row r="68" customHeight="1" spans="1:26">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -3340,11 +3567,13 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1" spans="1:26">
+    <row r="69" customHeight="1" spans="1:26">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -3368,11 +3597,13 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1" spans="1:26">
+    <row r="70" customHeight="1" spans="1:26">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -3396,11 +3627,13 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1" spans="1:26">
+    <row r="71" customHeight="1" spans="1:26">
       <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -3424,11 +3657,13 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1" spans="1:26">
+    <row r="72" customHeight="1" spans="1:26">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -3452,11 +3687,13 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1" spans="1:26">
+    <row r="73" customHeight="1" spans="1:26">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3480,12 +3717,14 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1" spans="1:26">
+    <row r="74" customHeight="1" spans="1:26">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3508,10 +3747,12 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1" spans="1:26">
+    <row r="75" customHeight="1" spans="1:26">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3536,11 +3777,13 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1" spans="1:26">
+    <row r="76" customHeight="1" spans="1:26">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -3564,11 +3807,13 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1" spans="1:26">
+    <row r="77" customHeight="1" spans="1:26">
       <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -3592,11 +3837,13 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1" spans="1:26">
+    <row r="78" customHeight="1" spans="1:26">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -3620,11 +3867,13 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1" spans="1:26">
+    <row r="79" customHeight="1" spans="1:26">
       <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -3648,11 +3897,13 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1" spans="1:26">
+    <row r="80" customHeight="1" spans="1:26">
       <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -3676,12 +3927,14 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1" spans="1:26">
+    <row r="81" customHeight="1" spans="1:26">
       <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -3704,12 +3957,14 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1" spans="1:26">
+    <row r="82" customHeight="1" spans="1:26">
       <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3732,9 +3987,11 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1" spans="1:26">
+    <row r="83" customHeight="1" spans="1:26">
       <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3763,7 +4020,9 @@
     <row r="84" ht="14.25" customHeight="1" spans="1:26">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -3791,7 +4050,9 @@
     <row r="85" ht="14.25" customHeight="1" spans="1:26">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -28959,6 +29220,1322 @@
       <c r="X983" s="5"/>
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
+    </row>
+    <row r="984" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A984" s="5"/>
+      <c r="B984" s="5"/>
+      <c r="C984" s="5"/>
+      <c r="D984" s="5"/>
+      <c r="E984" s="5"/>
+      <c r="F984" s="5"/>
+      <c r="G984" s="5"/>
+      <c r="H984" s="5"/>
+      <c r="I984" s="5"/>
+      <c r="J984" s="5"/>
+      <c r="K984" s="5"/>
+      <c r="L984" s="5"/>
+      <c r="M984" s="5"/>
+      <c r="N984" s="5"/>
+      <c r="O984" s="5"/>
+      <c r="P984" s="5"/>
+      <c r="Q984" s="5"/>
+      <c r="R984" s="5"/>
+      <c r="S984" s="5"/>
+      <c r="T984" s="5"/>
+      <c r="U984" s="5"/>
+      <c r="V984" s="5"/>
+      <c r="W984" s="5"/>
+      <c r="X984" s="5"/>
+      <c r="Y984" s="5"/>
+      <c r="Z984" s="5"/>
+    </row>
+    <row r="985" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A985" s="5"/>
+      <c r="B985" s="5"/>
+      <c r="C985" s="5"/>
+      <c r="D985" s="5"/>
+      <c r="E985" s="5"/>
+      <c r="F985" s="5"/>
+      <c r="G985" s="5"/>
+      <c r="H985" s="5"/>
+      <c r="I985" s="5"/>
+      <c r="J985" s="5"/>
+      <c r="K985" s="5"/>
+      <c r="L985" s="5"/>
+      <c r="M985" s="5"/>
+      <c r="N985" s="5"/>
+      <c r="O985" s="5"/>
+      <c r="P985" s="5"/>
+      <c r="Q985" s="5"/>
+      <c r="R985" s="5"/>
+      <c r="S985" s="5"/>
+      <c r="T985" s="5"/>
+      <c r="U985" s="5"/>
+      <c r="V985" s="5"/>
+      <c r="W985" s="5"/>
+      <c r="X985" s="5"/>
+      <c r="Y985" s="5"/>
+      <c r="Z985" s="5"/>
+    </row>
+    <row r="986" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A986" s="5"/>
+      <c r="B986" s="5"/>
+      <c r="C986" s="5"/>
+      <c r="D986" s="5"/>
+      <c r="E986" s="5"/>
+      <c r="F986" s="5"/>
+      <c r="G986" s="5"/>
+      <c r="H986" s="5"/>
+      <c r="I986" s="5"/>
+      <c r="J986" s="5"/>
+      <c r="K986" s="5"/>
+      <c r="L986" s="5"/>
+      <c r="M986" s="5"/>
+      <c r="N986" s="5"/>
+      <c r="O986" s="5"/>
+      <c r="P986" s="5"/>
+      <c r="Q986" s="5"/>
+      <c r="R986" s="5"/>
+      <c r="S986" s="5"/>
+      <c r="T986" s="5"/>
+      <c r="U986" s="5"/>
+      <c r="V986" s="5"/>
+      <c r="W986" s="5"/>
+      <c r="X986" s="5"/>
+      <c r="Y986" s="5"/>
+      <c r="Z986" s="5"/>
+    </row>
+    <row r="987" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A987" s="5"/>
+      <c r="B987" s="5"/>
+      <c r="C987" s="5"/>
+      <c r="D987" s="5"/>
+      <c r="E987" s="5"/>
+      <c r="F987" s="5"/>
+      <c r="G987" s="5"/>
+      <c r="H987" s="5"/>
+      <c r="I987" s="5"/>
+      <c r="J987" s="5"/>
+      <c r="K987" s="5"/>
+      <c r="L987" s="5"/>
+      <c r="M987" s="5"/>
+      <c r="N987" s="5"/>
+      <c r="O987" s="5"/>
+      <c r="P987" s="5"/>
+      <c r="Q987" s="5"/>
+      <c r="R987" s="5"/>
+      <c r="S987" s="5"/>
+      <c r="T987" s="5"/>
+      <c r="U987" s="5"/>
+      <c r="V987" s="5"/>
+      <c r="W987" s="5"/>
+      <c r="X987" s="5"/>
+      <c r="Y987" s="5"/>
+      <c r="Z987" s="5"/>
+    </row>
+    <row r="988" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A988" s="5"/>
+      <c r="B988" s="5"/>
+      <c r="C988" s="5"/>
+      <c r="D988" s="5"/>
+      <c r="E988" s="5"/>
+      <c r="F988" s="5"/>
+      <c r="G988" s="5"/>
+      <c r="H988" s="5"/>
+      <c r="I988" s="5"/>
+      <c r="J988" s="5"/>
+      <c r="K988" s="5"/>
+      <c r="L988" s="5"/>
+      <c r="M988" s="5"/>
+      <c r="N988" s="5"/>
+      <c r="O988" s="5"/>
+      <c r="P988" s="5"/>
+      <c r="Q988" s="5"/>
+      <c r="R988" s="5"/>
+      <c r="S988" s="5"/>
+      <c r="T988" s="5"/>
+      <c r="U988" s="5"/>
+      <c r="V988" s="5"/>
+      <c r="W988" s="5"/>
+      <c r="X988" s="5"/>
+      <c r="Y988" s="5"/>
+      <c r="Z988" s="5"/>
+    </row>
+    <row r="989" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A989" s="5"/>
+      <c r="B989" s="5"/>
+      <c r="C989" s="5"/>
+      <c r="D989" s="5"/>
+      <c r="E989" s="5"/>
+      <c r="F989" s="5"/>
+      <c r="G989" s="5"/>
+      <c r="H989" s="5"/>
+      <c r="I989" s="5"/>
+      <c r="J989" s="5"/>
+      <c r="K989" s="5"/>
+      <c r="L989" s="5"/>
+      <c r="M989" s="5"/>
+      <c r="N989" s="5"/>
+      <c r="O989" s="5"/>
+      <c r="P989" s="5"/>
+      <c r="Q989" s="5"/>
+      <c r="R989" s="5"/>
+      <c r="S989" s="5"/>
+      <c r="T989" s="5"/>
+      <c r="U989" s="5"/>
+      <c r="V989" s="5"/>
+      <c r="W989" s="5"/>
+      <c r="X989" s="5"/>
+      <c r="Y989" s="5"/>
+      <c r="Z989" s="5"/>
+    </row>
+    <row r="990" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A990" s="5"/>
+      <c r="B990" s="5"/>
+      <c r="C990" s="5"/>
+      <c r="D990" s="5"/>
+      <c r="E990" s="5"/>
+      <c r="F990" s="5"/>
+      <c r="G990" s="5"/>
+      <c r="H990" s="5"/>
+      <c r="I990" s="5"/>
+      <c r="J990" s="5"/>
+      <c r="K990" s="5"/>
+      <c r="L990" s="5"/>
+      <c r="M990" s="5"/>
+      <c r="N990" s="5"/>
+      <c r="O990" s="5"/>
+      <c r="P990" s="5"/>
+      <c r="Q990" s="5"/>
+      <c r="R990" s="5"/>
+      <c r="S990" s="5"/>
+      <c r="T990" s="5"/>
+      <c r="U990" s="5"/>
+      <c r="V990" s="5"/>
+      <c r="W990" s="5"/>
+      <c r="X990" s="5"/>
+      <c r="Y990" s="5"/>
+      <c r="Z990" s="5"/>
+    </row>
+    <row r="991" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A991" s="5"/>
+      <c r="B991" s="5"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="5"/>
+      <c r="E991" s="5"/>
+      <c r="F991" s="5"/>
+      <c r="G991" s="5"/>
+      <c r="H991" s="5"/>
+      <c r="I991" s="5"/>
+      <c r="J991" s="5"/>
+      <c r="K991" s="5"/>
+      <c r="L991" s="5"/>
+      <c r="M991" s="5"/>
+      <c r="N991" s="5"/>
+      <c r="O991" s="5"/>
+      <c r="P991" s="5"/>
+      <c r="Q991" s="5"/>
+      <c r="R991" s="5"/>
+      <c r="S991" s="5"/>
+      <c r="T991" s="5"/>
+      <c r="U991" s="5"/>
+      <c r="V991" s="5"/>
+      <c r="W991" s="5"/>
+      <c r="X991" s="5"/>
+      <c r="Y991" s="5"/>
+      <c r="Z991" s="5"/>
+    </row>
+    <row r="992" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A992" s="5"/>
+      <c r="B992" s="5"/>
+      <c r="C992" s="5"/>
+      <c r="D992" s="5"/>
+      <c r="E992" s="5"/>
+      <c r="F992" s="5"/>
+      <c r="G992" s="5"/>
+      <c r="H992" s="5"/>
+      <c r="I992" s="5"/>
+      <c r="J992" s="5"/>
+      <c r="K992" s="5"/>
+      <c r="L992" s="5"/>
+      <c r="M992" s="5"/>
+      <c r="N992" s="5"/>
+      <c r="O992" s="5"/>
+      <c r="P992" s="5"/>
+      <c r="Q992" s="5"/>
+      <c r="R992" s="5"/>
+      <c r="S992" s="5"/>
+      <c r="T992" s="5"/>
+      <c r="U992" s="5"/>
+      <c r="V992" s="5"/>
+      <c r="W992" s="5"/>
+      <c r="X992" s="5"/>
+      <c r="Y992" s="5"/>
+      <c r="Z992" s="5"/>
+    </row>
+    <row r="993" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A993" s="5"/>
+      <c r="B993" s="5"/>
+      <c r="C993" s="5"/>
+      <c r="D993" s="5"/>
+      <c r="E993" s="5"/>
+      <c r="F993" s="5"/>
+      <c r="G993" s="5"/>
+      <c r="H993" s="5"/>
+      <c r="I993" s="5"/>
+      <c r="J993" s="5"/>
+      <c r="K993" s="5"/>
+      <c r="L993" s="5"/>
+      <c r="M993" s="5"/>
+      <c r="N993" s="5"/>
+      <c r="O993" s="5"/>
+      <c r="P993" s="5"/>
+      <c r="Q993" s="5"/>
+      <c r="R993" s="5"/>
+      <c r="S993" s="5"/>
+      <c r="T993" s="5"/>
+      <c r="U993" s="5"/>
+      <c r="V993" s="5"/>
+      <c r="W993" s="5"/>
+      <c r="X993" s="5"/>
+      <c r="Y993" s="5"/>
+      <c r="Z993" s="5"/>
+    </row>
+    <row r="994" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A994" s="5"/>
+      <c r="B994" s="5"/>
+      <c r="C994" s="5"/>
+      <c r="D994" s="5"/>
+      <c r="E994" s="5"/>
+      <c r="F994" s="5"/>
+      <c r="G994" s="5"/>
+      <c r="H994" s="5"/>
+      <c r="I994" s="5"/>
+      <c r="J994" s="5"/>
+      <c r="K994" s="5"/>
+      <c r="L994" s="5"/>
+      <c r="M994" s="5"/>
+      <c r="N994" s="5"/>
+      <c r="O994" s="5"/>
+      <c r="P994" s="5"/>
+      <c r="Q994" s="5"/>
+      <c r="R994" s="5"/>
+      <c r="S994" s="5"/>
+      <c r="T994" s="5"/>
+      <c r="U994" s="5"/>
+      <c r="V994" s="5"/>
+      <c r="W994" s="5"/>
+      <c r="X994" s="5"/>
+      <c r="Y994" s="5"/>
+      <c r="Z994" s="5"/>
+    </row>
+    <row r="995" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A995" s="5"/>
+      <c r="B995" s="5"/>
+      <c r="C995" s="5"/>
+      <c r="D995" s="5"/>
+      <c r="E995" s="5"/>
+      <c r="F995" s="5"/>
+      <c r="G995" s="5"/>
+      <c r="H995" s="5"/>
+      <c r="I995" s="5"/>
+      <c r="J995" s="5"/>
+      <c r="K995" s="5"/>
+      <c r="L995" s="5"/>
+      <c r="M995" s="5"/>
+      <c r="N995" s="5"/>
+      <c r="O995" s="5"/>
+      <c r="P995" s="5"/>
+      <c r="Q995" s="5"/>
+      <c r="R995" s="5"/>
+      <c r="S995" s="5"/>
+      <c r="T995" s="5"/>
+      <c r="U995" s="5"/>
+      <c r="V995" s="5"/>
+      <c r="W995" s="5"/>
+      <c r="X995" s="5"/>
+      <c r="Y995" s="5"/>
+      <c r="Z995" s="5"/>
+    </row>
+    <row r="996" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A996" s="5"/>
+      <c r="B996" s="5"/>
+      <c r="C996" s="5"/>
+      <c r="D996" s="5"/>
+      <c r="E996" s="5"/>
+      <c r="F996" s="5"/>
+      <c r="G996" s="5"/>
+      <c r="H996" s="5"/>
+      <c r="I996" s="5"/>
+      <c r="J996" s="5"/>
+      <c r="K996" s="5"/>
+      <c r="L996" s="5"/>
+      <c r="M996" s="5"/>
+      <c r="N996" s="5"/>
+      <c r="O996" s="5"/>
+      <c r="P996" s="5"/>
+      <c r="Q996" s="5"/>
+      <c r="R996" s="5"/>
+      <c r="S996" s="5"/>
+      <c r="T996" s="5"/>
+      <c r="U996" s="5"/>
+      <c r="V996" s="5"/>
+      <c r="W996" s="5"/>
+      <c r="X996" s="5"/>
+      <c r="Y996" s="5"/>
+      <c r="Z996" s="5"/>
+    </row>
+    <row r="997" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A997" s="5"/>
+      <c r="B997" s="5"/>
+      <c r="C997" s="5"/>
+      <c r="D997" s="5"/>
+      <c r="E997" s="5"/>
+      <c r="F997" s="5"/>
+      <c r="G997" s="5"/>
+      <c r="H997" s="5"/>
+      <c r="I997" s="5"/>
+      <c r="J997" s="5"/>
+      <c r="K997" s="5"/>
+      <c r="L997" s="5"/>
+      <c r="M997" s="5"/>
+      <c r="N997" s="5"/>
+      <c r="O997" s="5"/>
+      <c r="P997" s="5"/>
+      <c r="Q997" s="5"/>
+      <c r="R997" s="5"/>
+      <c r="S997" s="5"/>
+      <c r="T997" s="5"/>
+      <c r="U997" s="5"/>
+      <c r="V997" s="5"/>
+      <c r="W997" s="5"/>
+      <c r="X997" s="5"/>
+      <c r="Y997" s="5"/>
+      <c r="Z997" s="5"/>
+    </row>
+    <row r="998" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A998" s="5"/>
+      <c r="B998" s="5"/>
+      <c r="C998" s="5"/>
+      <c r="D998" s="5"/>
+      <c r="E998" s="5"/>
+      <c r="F998" s="5"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="5"/>
+      <c r="I998" s="5"/>
+      <c r="J998" s="5"/>
+      <c r="K998" s="5"/>
+      <c r="L998" s="5"/>
+      <c r="M998" s="5"/>
+      <c r="N998" s="5"/>
+      <c r="O998" s="5"/>
+      <c r="P998" s="5"/>
+      <c r="Q998" s="5"/>
+      <c r="R998" s="5"/>
+      <c r="S998" s="5"/>
+      <c r="T998" s="5"/>
+      <c r="U998" s="5"/>
+      <c r="V998" s="5"/>
+      <c r="W998" s="5"/>
+      <c r="X998" s="5"/>
+      <c r="Y998" s="5"/>
+      <c r="Z998" s="5"/>
+    </row>
+    <row r="999" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A999" s="5"/>
+      <c r="B999" s="5"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="5"/>
+      <c r="E999" s="5"/>
+      <c r="F999" s="5"/>
+      <c r="G999" s="5"/>
+      <c r="H999" s="5"/>
+      <c r="I999" s="5"/>
+      <c r="J999" s="5"/>
+      <c r="K999" s="5"/>
+      <c r="L999" s="5"/>
+      <c r="M999" s="5"/>
+      <c r="N999" s="5"/>
+      <c r="O999" s="5"/>
+      <c r="P999" s="5"/>
+      <c r="Q999" s="5"/>
+      <c r="R999" s="5"/>
+      <c r="S999" s="5"/>
+      <c r="T999" s="5"/>
+      <c r="U999" s="5"/>
+      <c r="V999" s="5"/>
+      <c r="W999" s="5"/>
+      <c r="X999" s="5"/>
+      <c r="Y999" s="5"/>
+      <c r="Z999" s="5"/>
+    </row>
+    <row r="1000" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1000" s="5"/>
+      <c r="B1000" s="5"/>
+      <c r="C1000" s="5"/>
+      <c r="D1000" s="5"/>
+      <c r="E1000" s="5"/>
+      <c r="F1000" s="5"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="5"/>
+      <c r="I1000" s="5"/>
+      <c r="J1000" s="5"/>
+      <c r="K1000" s="5"/>
+      <c r="L1000" s="5"/>
+      <c r="M1000" s="5"/>
+      <c r="N1000" s="5"/>
+      <c r="O1000" s="5"/>
+      <c r="P1000" s="5"/>
+      <c r="Q1000" s="5"/>
+      <c r="R1000" s="5"/>
+      <c r="S1000" s="5"/>
+      <c r="T1000" s="5"/>
+      <c r="U1000" s="5"/>
+      <c r="V1000" s="5"/>
+      <c r="W1000" s="5"/>
+      <c r="X1000" s="5"/>
+      <c r="Y1000" s="5"/>
+      <c r="Z1000" s="5"/>
+    </row>
+    <row r="1001" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
+      <c r="H1001" s="5"/>
+      <c r="I1001" s="5"/>
+      <c r="J1001" s="5"/>
+      <c r="K1001" s="5"/>
+      <c r="L1001" s="5"/>
+      <c r="M1001" s="5"/>
+      <c r="N1001" s="5"/>
+      <c r="O1001" s="5"/>
+      <c r="P1001" s="5"/>
+      <c r="Q1001" s="5"/>
+      <c r="R1001" s="5"/>
+      <c r="S1001" s="5"/>
+      <c r="T1001" s="5"/>
+      <c r="U1001" s="5"/>
+      <c r="V1001" s="5"/>
+      <c r="W1001" s="5"/>
+      <c r="X1001" s="5"/>
+      <c r="Y1001" s="5"/>
+      <c r="Z1001" s="5"/>
+    </row>
+    <row r="1002" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+      <c r="F1002" s="5"/>
+      <c r="G1002" s="5"/>
+      <c r="H1002" s="5"/>
+      <c r="I1002" s="5"/>
+      <c r="J1002" s="5"/>
+      <c r="K1002" s="5"/>
+      <c r="L1002" s="5"/>
+      <c r="M1002" s="5"/>
+      <c r="N1002" s="5"/>
+      <c r="O1002" s="5"/>
+      <c r="P1002" s="5"/>
+      <c r="Q1002" s="5"/>
+      <c r="R1002" s="5"/>
+      <c r="S1002" s="5"/>
+      <c r="T1002" s="5"/>
+      <c r="U1002" s="5"/>
+      <c r="V1002" s="5"/>
+      <c r="W1002" s="5"/>
+      <c r="X1002" s="5"/>
+      <c r="Y1002" s="5"/>
+      <c r="Z1002" s="5"/>
+    </row>
+    <row r="1003" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+      <c r="G1003" s="5"/>
+      <c r="H1003" s="5"/>
+      <c r="I1003" s="5"/>
+      <c r="J1003" s="5"/>
+      <c r="K1003" s="5"/>
+      <c r="L1003" s="5"/>
+      <c r="M1003" s="5"/>
+      <c r="N1003" s="5"/>
+      <c r="O1003" s="5"/>
+      <c r="P1003" s="5"/>
+      <c r="Q1003" s="5"/>
+      <c r="R1003" s="5"/>
+      <c r="S1003" s="5"/>
+      <c r="T1003" s="5"/>
+      <c r="U1003" s="5"/>
+      <c r="V1003" s="5"/>
+      <c r="W1003" s="5"/>
+      <c r="X1003" s="5"/>
+      <c r="Y1003" s="5"/>
+      <c r="Z1003" s="5"/>
+    </row>
+    <row r="1004" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="5"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="5"/>
+      <c r="G1004" s="5"/>
+      <c r="H1004" s="5"/>
+      <c r="I1004" s="5"/>
+      <c r="J1004" s="5"/>
+      <c r="K1004" s="5"/>
+      <c r="L1004" s="5"/>
+      <c r="M1004" s="5"/>
+      <c r="N1004" s="5"/>
+      <c r="O1004" s="5"/>
+      <c r="P1004" s="5"/>
+      <c r="Q1004" s="5"/>
+      <c r="R1004" s="5"/>
+      <c r="S1004" s="5"/>
+      <c r="T1004" s="5"/>
+      <c r="U1004" s="5"/>
+      <c r="V1004" s="5"/>
+      <c r="W1004" s="5"/>
+      <c r="X1004" s="5"/>
+      <c r="Y1004" s="5"/>
+      <c r="Z1004" s="5"/>
+    </row>
+    <row r="1005" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1005" s="5"/>
+      <c r="B1005" s="5"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="5"/>
+      <c r="G1005" s="5"/>
+      <c r="H1005" s="5"/>
+      <c r="I1005" s="5"/>
+      <c r="J1005" s="5"/>
+      <c r="K1005" s="5"/>
+      <c r="L1005" s="5"/>
+      <c r="M1005" s="5"/>
+      <c r="N1005" s="5"/>
+      <c r="O1005" s="5"/>
+      <c r="P1005" s="5"/>
+      <c r="Q1005" s="5"/>
+      <c r="R1005" s="5"/>
+      <c r="S1005" s="5"/>
+      <c r="T1005" s="5"/>
+      <c r="U1005" s="5"/>
+      <c r="V1005" s="5"/>
+      <c r="W1005" s="5"/>
+      <c r="X1005" s="5"/>
+      <c r="Y1005" s="5"/>
+      <c r="Z1005" s="5"/>
+    </row>
+    <row r="1006" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1006" s="5"/>
+      <c r="B1006" s="5"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
+      <c r="E1006" s="5"/>
+      <c r="F1006" s="5"/>
+      <c r="G1006" s="5"/>
+      <c r="H1006" s="5"/>
+      <c r="I1006" s="5"/>
+      <c r="J1006" s="5"/>
+      <c r="K1006" s="5"/>
+      <c r="L1006" s="5"/>
+      <c r="M1006" s="5"/>
+      <c r="N1006" s="5"/>
+      <c r="O1006" s="5"/>
+      <c r="P1006" s="5"/>
+      <c r="Q1006" s="5"/>
+      <c r="R1006" s="5"/>
+      <c r="S1006" s="5"/>
+      <c r="T1006" s="5"/>
+      <c r="U1006" s="5"/>
+      <c r="V1006" s="5"/>
+      <c r="W1006" s="5"/>
+      <c r="X1006" s="5"/>
+      <c r="Y1006" s="5"/>
+      <c r="Z1006" s="5"/>
+    </row>
+    <row r="1007" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1007" s="5"/>
+      <c r="B1007" s="5"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
+      <c r="E1007" s="5"/>
+      <c r="F1007" s="5"/>
+      <c r="G1007" s="5"/>
+      <c r="H1007" s="5"/>
+      <c r="I1007" s="5"/>
+      <c r="J1007" s="5"/>
+      <c r="K1007" s="5"/>
+      <c r="L1007" s="5"/>
+      <c r="M1007" s="5"/>
+      <c r="N1007" s="5"/>
+      <c r="O1007" s="5"/>
+      <c r="P1007" s="5"/>
+      <c r="Q1007" s="5"/>
+      <c r="R1007" s="5"/>
+      <c r="S1007" s="5"/>
+      <c r="T1007" s="5"/>
+      <c r="U1007" s="5"/>
+      <c r="V1007" s="5"/>
+      <c r="W1007" s="5"/>
+      <c r="X1007" s="5"/>
+      <c r="Y1007" s="5"/>
+      <c r="Z1007" s="5"/>
+    </row>
+    <row r="1008" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1008" s="5"/>
+      <c r="B1008" s="5"/>
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="5"/>
+      <c r="E1008" s="5"/>
+      <c r="F1008" s="5"/>
+      <c r="G1008" s="5"/>
+      <c r="H1008" s="5"/>
+      <c r="I1008" s="5"/>
+      <c r="J1008" s="5"/>
+      <c r="K1008" s="5"/>
+      <c r="L1008" s="5"/>
+      <c r="M1008" s="5"/>
+      <c r="N1008" s="5"/>
+      <c r="O1008" s="5"/>
+      <c r="P1008" s="5"/>
+      <c r="Q1008" s="5"/>
+      <c r="R1008" s="5"/>
+      <c r="S1008" s="5"/>
+      <c r="T1008" s="5"/>
+      <c r="U1008" s="5"/>
+      <c r="V1008" s="5"/>
+      <c r="W1008" s="5"/>
+      <c r="X1008" s="5"/>
+      <c r="Y1008" s="5"/>
+      <c r="Z1008" s="5"/>
+    </row>
+    <row r="1009" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1009" s="5"/>
+      <c r="B1009" s="5"/>
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+      <c r="F1009" s="5"/>
+      <c r="G1009" s="5"/>
+      <c r="H1009" s="5"/>
+      <c r="I1009" s="5"/>
+      <c r="J1009" s="5"/>
+      <c r="K1009" s="5"/>
+      <c r="L1009" s="5"/>
+      <c r="M1009" s="5"/>
+      <c r="N1009" s="5"/>
+      <c r="O1009" s="5"/>
+      <c r="P1009" s="5"/>
+      <c r="Q1009" s="5"/>
+      <c r="R1009" s="5"/>
+      <c r="S1009" s="5"/>
+      <c r="T1009" s="5"/>
+      <c r="U1009" s="5"/>
+      <c r="V1009" s="5"/>
+      <c r="W1009" s="5"/>
+      <c r="X1009" s="5"/>
+      <c r="Y1009" s="5"/>
+      <c r="Z1009" s="5"/>
+    </row>
+    <row r="1010" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1010" s="5"/>
+      <c r="B1010" s="5"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
+      <c r="E1010" s="5"/>
+      <c r="F1010" s="5"/>
+      <c r="G1010" s="5"/>
+      <c r="H1010" s="5"/>
+      <c r="I1010" s="5"/>
+      <c r="J1010" s="5"/>
+      <c r="K1010" s="5"/>
+      <c r="L1010" s="5"/>
+      <c r="M1010" s="5"/>
+      <c r="N1010" s="5"/>
+      <c r="O1010" s="5"/>
+      <c r="P1010" s="5"/>
+      <c r="Q1010" s="5"/>
+      <c r="R1010" s="5"/>
+      <c r="S1010" s="5"/>
+      <c r="T1010" s="5"/>
+      <c r="U1010" s="5"/>
+      <c r="V1010" s="5"/>
+      <c r="W1010" s="5"/>
+      <c r="X1010" s="5"/>
+      <c r="Y1010" s="5"/>
+      <c r="Z1010" s="5"/>
+    </row>
+    <row r="1011" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1011" s="5"/>
+      <c r="B1011" s="5"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+      <c r="F1011" s="5"/>
+      <c r="G1011" s="5"/>
+      <c r="H1011" s="5"/>
+      <c r="I1011" s="5"/>
+      <c r="J1011" s="5"/>
+      <c r="K1011" s="5"/>
+      <c r="L1011" s="5"/>
+      <c r="M1011" s="5"/>
+      <c r="N1011" s="5"/>
+      <c r="O1011" s="5"/>
+      <c r="P1011" s="5"/>
+      <c r="Q1011" s="5"/>
+      <c r="R1011" s="5"/>
+      <c r="S1011" s="5"/>
+      <c r="T1011" s="5"/>
+      <c r="U1011" s="5"/>
+      <c r="V1011" s="5"/>
+      <c r="W1011" s="5"/>
+      <c r="X1011" s="5"/>
+      <c r="Y1011" s="5"/>
+      <c r="Z1011" s="5"/>
+    </row>
+    <row r="1012" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1012" s="5"/>
+      <c r="B1012" s="5"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
+      <c r="E1012" s="5"/>
+      <c r="F1012" s="5"/>
+      <c r="G1012" s="5"/>
+      <c r="H1012" s="5"/>
+      <c r="I1012" s="5"/>
+      <c r="J1012" s="5"/>
+      <c r="K1012" s="5"/>
+      <c r="L1012" s="5"/>
+      <c r="M1012" s="5"/>
+      <c r="N1012" s="5"/>
+      <c r="O1012" s="5"/>
+      <c r="P1012" s="5"/>
+      <c r="Q1012" s="5"/>
+      <c r="R1012" s="5"/>
+      <c r="S1012" s="5"/>
+      <c r="T1012" s="5"/>
+      <c r="U1012" s="5"/>
+      <c r="V1012" s="5"/>
+      <c r="W1012" s="5"/>
+      <c r="X1012" s="5"/>
+      <c r="Y1012" s="5"/>
+      <c r="Z1012" s="5"/>
+    </row>
+    <row r="1013" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1013" s="5"/>
+      <c r="B1013" s="5"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
+      <c r="F1013" s="5"/>
+      <c r="G1013" s="5"/>
+      <c r="H1013" s="5"/>
+      <c r="I1013" s="5"/>
+      <c r="J1013" s="5"/>
+      <c r="K1013" s="5"/>
+      <c r="L1013" s="5"/>
+      <c r="M1013" s="5"/>
+      <c r="N1013" s="5"/>
+      <c r="O1013" s="5"/>
+      <c r="P1013" s="5"/>
+      <c r="Q1013" s="5"/>
+      <c r="R1013" s="5"/>
+      <c r="S1013" s="5"/>
+      <c r="T1013" s="5"/>
+      <c r="U1013" s="5"/>
+      <c r="V1013" s="5"/>
+      <c r="W1013" s="5"/>
+      <c r="X1013" s="5"/>
+      <c r="Y1013" s="5"/>
+      <c r="Z1013" s="5"/>
+    </row>
+    <row r="1014" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1014" s="5"/>
+      <c r="B1014" s="5"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
+      <c r="F1014" s="5"/>
+      <c r="G1014" s="5"/>
+      <c r="H1014" s="5"/>
+      <c r="I1014" s="5"/>
+      <c r="J1014" s="5"/>
+      <c r="K1014" s="5"/>
+      <c r="L1014" s="5"/>
+      <c r="M1014" s="5"/>
+      <c r="N1014" s="5"/>
+      <c r="O1014" s="5"/>
+      <c r="P1014" s="5"/>
+      <c r="Q1014" s="5"/>
+      <c r="R1014" s="5"/>
+      <c r="S1014" s="5"/>
+      <c r="T1014" s="5"/>
+      <c r="U1014" s="5"/>
+      <c r="V1014" s="5"/>
+      <c r="W1014" s="5"/>
+      <c r="X1014" s="5"/>
+      <c r="Y1014" s="5"/>
+      <c r="Z1014" s="5"/>
+    </row>
+    <row r="1015" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1015" s="5"/>
+      <c r="B1015" s="5"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
+      <c r="E1015" s="5"/>
+      <c r="F1015" s="5"/>
+      <c r="G1015" s="5"/>
+      <c r="H1015" s="5"/>
+      <c r="I1015" s="5"/>
+      <c r="J1015" s="5"/>
+      <c r="K1015" s="5"/>
+      <c r="L1015" s="5"/>
+      <c r="M1015" s="5"/>
+      <c r="N1015" s="5"/>
+      <c r="O1015" s="5"/>
+      <c r="P1015" s="5"/>
+      <c r="Q1015" s="5"/>
+      <c r="R1015" s="5"/>
+      <c r="S1015" s="5"/>
+      <c r="T1015" s="5"/>
+      <c r="U1015" s="5"/>
+      <c r="V1015" s="5"/>
+      <c r="W1015" s="5"/>
+      <c r="X1015" s="5"/>
+      <c r="Y1015" s="5"/>
+      <c r="Z1015" s="5"/>
+    </row>
+    <row r="1016" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1016" s="5"/>
+      <c r="B1016" s="5"/>
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="5"/>
+      <c r="E1016" s="5"/>
+      <c r="F1016" s="5"/>
+      <c r="G1016" s="5"/>
+      <c r="H1016" s="5"/>
+      <c r="I1016" s="5"/>
+      <c r="J1016" s="5"/>
+      <c r="K1016" s="5"/>
+      <c r="L1016" s="5"/>
+      <c r="M1016" s="5"/>
+      <c r="N1016" s="5"/>
+      <c r="O1016" s="5"/>
+      <c r="P1016" s="5"/>
+      <c r="Q1016" s="5"/>
+      <c r="R1016" s="5"/>
+      <c r="S1016" s="5"/>
+      <c r="T1016" s="5"/>
+      <c r="U1016" s="5"/>
+      <c r="V1016" s="5"/>
+      <c r="W1016" s="5"/>
+      <c r="X1016" s="5"/>
+      <c r="Y1016" s="5"/>
+      <c r="Z1016" s="5"/>
+    </row>
+    <row r="1017" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1017" s="5"/>
+      <c r="B1017" s="5"/>
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="5"/>
+      <c r="E1017" s="5"/>
+      <c r="F1017" s="5"/>
+      <c r="G1017" s="5"/>
+      <c r="H1017" s="5"/>
+      <c r="I1017" s="5"/>
+      <c r="J1017" s="5"/>
+      <c r="K1017" s="5"/>
+      <c r="L1017" s="5"/>
+      <c r="M1017" s="5"/>
+      <c r="N1017" s="5"/>
+      <c r="O1017" s="5"/>
+      <c r="P1017" s="5"/>
+      <c r="Q1017" s="5"/>
+      <c r="R1017" s="5"/>
+      <c r="S1017" s="5"/>
+      <c r="T1017" s="5"/>
+      <c r="U1017" s="5"/>
+      <c r="V1017" s="5"/>
+      <c r="W1017" s="5"/>
+      <c r="X1017" s="5"/>
+      <c r="Y1017" s="5"/>
+      <c r="Z1017" s="5"/>
+    </row>
+    <row r="1018" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1018" s="5"/>
+      <c r="B1018" s="5"/>
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="5"/>
+      <c r="E1018" s="5"/>
+      <c r="F1018" s="5"/>
+      <c r="G1018" s="5"/>
+      <c r="H1018" s="5"/>
+      <c r="I1018" s="5"/>
+      <c r="J1018" s="5"/>
+      <c r="K1018" s="5"/>
+      <c r="L1018" s="5"/>
+      <c r="M1018" s="5"/>
+      <c r="N1018" s="5"/>
+      <c r="O1018" s="5"/>
+      <c r="P1018" s="5"/>
+      <c r="Q1018" s="5"/>
+      <c r="R1018" s="5"/>
+      <c r="S1018" s="5"/>
+      <c r="T1018" s="5"/>
+      <c r="U1018" s="5"/>
+      <c r="V1018" s="5"/>
+      <c r="W1018" s="5"/>
+      <c r="X1018" s="5"/>
+      <c r="Y1018" s="5"/>
+      <c r="Z1018" s="5"/>
+    </row>
+    <row r="1019" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1019" s="5"/>
+      <c r="B1019" s="5"/>
+      <c r="C1019" s="5"/>
+      <c r="D1019" s="5"/>
+      <c r="E1019" s="5"/>
+      <c r="F1019" s="5"/>
+      <c r="G1019" s="5"/>
+      <c r="H1019" s="5"/>
+      <c r="I1019" s="5"/>
+      <c r="J1019" s="5"/>
+      <c r="K1019" s="5"/>
+      <c r="L1019" s="5"/>
+      <c r="M1019" s="5"/>
+      <c r="N1019" s="5"/>
+      <c r="O1019" s="5"/>
+      <c r="P1019" s="5"/>
+      <c r="Q1019" s="5"/>
+      <c r="R1019" s="5"/>
+      <c r="S1019" s="5"/>
+      <c r="T1019" s="5"/>
+      <c r="U1019" s="5"/>
+      <c r="V1019" s="5"/>
+      <c r="W1019" s="5"/>
+      <c r="X1019" s="5"/>
+      <c r="Y1019" s="5"/>
+      <c r="Z1019" s="5"/>
+    </row>
+    <row r="1020" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1020" s="5"/>
+      <c r="B1020" s="5"/>
+      <c r="C1020" s="5"/>
+      <c r="D1020" s="5"/>
+      <c r="E1020" s="5"/>
+      <c r="F1020" s="5"/>
+      <c r="G1020" s="5"/>
+      <c r="H1020" s="5"/>
+      <c r="I1020" s="5"/>
+      <c r="J1020" s="5"/>
+      <c r="K1020" s="5"/>
+      <c r="L1020" s="5"/>
+      <c r="M1020" s="5"/>
+      <c r="N1020" s="5"/>
+      <c r="O1020" s="5"/>
+      <c r="P1020" s="5"/>
+      <c r="Q1020" s="5"/>
+      <c r="R1020" s="5"/>
+      <c r="S1020" s="5"/>
+      <c r="T1020" s="5"/>
+      <c r="U1020" s="5"/>
+      <c r="V1020" s="5"/>
+      <c r="W1020" s="5"/>
+      <c r="X1020" s="5"/>
+      <c r="Y1020" s="5"/>
+      <c r="Z1020" s="5"/>
+    </row>
+    <row r="1021" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1021" s="5"/>
+      <c r="B1021" s="5"/>
+      <c r="C1021" s="5"/>
+      <c r="D1021" s="5"/>
+      <c r="E1021" s="5"/>
+      <c r="F1021" s="5"/>
+      <c r="G1021" s="5"/>
+      <c r="H1021" s="5"/>
+      <c r="I1021" s="5"/>
+      <c r="J1021" s="5"/>
+      <c r="K1021" s="5"/>
+      <c r="L1021" s="5"/>
+      <c r="M1021" s="5"/>
+      <c r="N1021" s="5"/>
+      <c r="O1021" s="5"/>
+      <c r="P1021" s="5"/>
+      <c r="Q1021" s="5"/>
+      <c r="R1021" s="5"/>
+      <c r="S1021" s="5"/>
+      <c r="T1021" s="5"/>
+      <c r="U1021" s="5"/>
+      <c r="V1021" s="5"/>
+      <c r="W1021" s="5"/>
+      <c r="X1021" s="5"/>
+      <c r="Y1021" s="5"/>
+      <c r="Z1021" s="5"/>
+    </row>
+    <row r="1022" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1022" s="5"/>
+      <c r="B1022" s="5"/>
+      <c r="C1022" s="5"/>
+      <c r="D1022" s="5"/>
+      <c r="E1022" s="5"/>
+      <c r="F1022" s="5"/>
+      <c r="G1022" s="5"/>
+      <c r="H1022" s="5"/>
+      <c r="I1022" s="5"/>
+      <c r="J1022" s="5"/>
+      <c r="K1022" s="5"/>
+      <c r="L1022" s="5"/>
+      <c r="M1022" s="5"/>
+      <c r="N1022" s="5"/>
+      <c r="O1022" s="5"/>
+      <c r="P1022" s="5"/>
+      <c r="Q1022" s="5"/>
+      <c r="R1022" s="5"/>
+      <c r="S1022" s="5"/>
+      <c r="T1022" s="5"/>
+      <c r="U1022" s="5"/>
+      <c r="V1022" s="5"/>
+      <c r="W1022" s="5"/>
+      <c r="X1022" s="5"/>
+      <c r="Y1022" s="5"/>
+      <c r="Z1022" s="5"/>
+    </row>
+    <row r="1023" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1023" s="5"/>
+      <c r="B1023" s="5"/>
+      <c r="C1023" s="5"/>
+      <c r="D1023" s="5"/>
+      <c r="E1023" s="5"/>
+      <c r="F1023" s="5"/>
+      <c r="G1023" s="5"/>
+      <c r="H1023" s="5"/>
+      <c r="I1023" s="5"/>
+      <c r="J1023" s="5"/>
+      <c r="K1023" s="5"/>
+      <c r="L1023" s="5"/>
+      <c r="M1023" s="5"/>
+      <c r="N1023" s="5"/>
+      <c r="O1023" s="5"/>
+      <c r="P1023" s="5"/>
+      <c r="Q1023" s="5"/>
+      <c r="R1023" s="5"/>
+      <c r="S1023" s="5"/>
+      <c r="T1023" s="5"/>
+      <c r="U1023" s="5"/>
+      <c r="V1023" s="5"/>
+      <c r="W1023" s="5"/>
+      <c r="X1023" s="5"/>
+      <c r="Y1023" s="5"/>
+      <c r="Z1023" s="5"/>
+    </row>
+    <row r="1024" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1024" s="5"/>
+      <c r="B1024" s="5"/>
+      <c r="C1024" s="5"/>
+      <c r="D1024" s="5"/>
+      <c r="E1024" s="5"/>
+      <c r="F1024" s="5"/>
+      <c r="G1024" s="5"/>
+      <c r="H1024" s="5"/>
+      <c r="I1024" s="5"/>
+      <c r="J1024" s="5"/>
+      <c r="K1024" s="5"/>
+      <c r="L1024" s="5"/>
+      <c r="M1024" s="5"/>
+      <c r="N1024" s="5"/>
+      <c r="O1024" s="5"/>
+      <c r="P1024" s="5"/>
+      <c r="Q1024" s="5"/>
+      <c r="R1024" s="5"/>
+      <c r="S1024" s="5"/>
+      <c r="T1024" s="5"/>
+      <c r="U1024" s="5"/>
+      <c r="V1024" s="5"/>
+      <c r="W1024" s="5"/>
+      <c r="X1024" s="5"/>
+      <c r="Y1024" s="5"/>
+      <c r="Z1024" s="5"/>
+    </row>
+    <row r="1025" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1025" s="5"/>
+      <c r="B1025" s="5"/>
+      <c r="C1025" s="5"/>
+      <c r="D1025" s="5"/>
+      <c r="E1025" s="5"/>
+      <c r="F1025" s="5"/>
+      <c r="G1025" s="5"/>
+      <c r="H1025" s="5"/>
+      <c r="I1025" s="5"/>
+      <c r="J1025" s="5"/>
+      <c r="K1025" s="5"/>
+      <c r="L1025" s="5"/>
+      <c r="M1025" s="5"/>
+      <c r="N1025" s="5"/>
+      <c r="O1025" s="5"/>
+      <c r="P1025" s="5"/>
+      <c r="Q1025" s="5"/>
+      <c r="R1025" s="5"/>
+      <c r="S1025" s="5"/>
+      <c r="T1025" s="5"/>
+      <c r="U1025" s="5"/>
+      <c r="V1025" s="5"/>
+      <c r="W1025" s="5"/>
+      <c r="X1025" s="5"/>
+      <c r="Y1025" s="5"/>
+      <c r="Z1025" s="5"/>
+    </row>
+    <row r="1026" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1026" s="5"/>
+      <c r="B1026" s="5"/>
+      <c r="C1026" s="5"/>
+      <c r="D1026" s="5"/>
+      <c r="E1026" s="5"/>
+      <c r="F1026" s="5"/>
+      <c r="G1026" s="5"/>
+      <c r="H1026" s="5"/>
+      <c r="I1026" s="5"/>
+      <c r="J1026" s="5"/>
+      <c r="K1026" s="5"/>
+      <c r="L1026" s="5"/>
+      <c r="M1026" s="5"/>
+      <c r="N1026" s="5"/>
+      <c r="O1026" s="5"/>
+      <c r="P1026" s="5"/>
+      <c r="Q1026" s="5"/>
+      <c r="R1026" s="5"/>
+      <c r="S1026" s="5"/>
+      <c r="T1026" s="5"/>
+      <c r="U1026" s="5"/>
+      <c r="V1026" s="5"/>
+      <c r="W1026" s="5"/>
+      <c r="X1026" s="5"/>
+      <c r="Y1026" s="5"/>
+      <c r="Z1026" s="5"/>
+    </row>
+    <row r="1027" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1027" s="5"/>
+      <c r="B1027" s="5"/>
+      <c r="C1027" s="5"/>
+      <c r="D1027" s="5"/>
+      <c r="E1027" s="5"/>
+      <c r="F1027" s="5"/>
+      <c r="G1027" s="5"/>
+      <c r="H1027" s="5"/>
+      <c r="I1027" s="5"/>
+      <c r="J1027" s="5"/>
+      <c r="K1027" s="5"/>
+      <c r="L1027" s="5"/>
+      <c r="M1027" s="5"/>
+      <c r="N1027" s="5"/>
+      <c r="O1027" s="5"/>
+      <c r="P1027" s="5"/>
+      <c r="Q1027" s="5"/>
+      <c r="R1027" s="5"/>
+      <c r="S1027" s="5"/>
+      <c r="T1027" s="5"/>
+      <c r="U1027" s="5"/>
+      <c r="V1027" s="5"/>
+      <c r="W1027" s="5"/>
+      <c r="X1027" s="5"/>
+      <c r="Y1027" s="5"/>
+      <c r="Z1027" s="5"/>
+    </row>
+    <row r="1028" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1028" s="5"/>
+      <c r="B1028" s="5"/>
+      <c r="C1028" s="5"/>
+      <c r="D1028" s="5"/>
+      <c r="E1028" s="5"/>
+      <c r="F1028" s="5"/>
+      <c r="G1028" s="5"/>
+      <c r="H1028" s="5"/>
+      <c r="I1028" s="5"/>
+      <c r="J1028" s="5"/>
+      <c r="K1028" s="5"/>
+      <c r="L1028" s="5"/>
+      <c r="M1028" s="5"/>
+      <c r="N1028" s="5"/>
+      <c r="O1028" s="5"/>
+      <c r="P1028" s="5"/>
+      <c r="Q1028" s="5"/>
+      <c r="R1028" s="5"/>
+      <c r="S1028" s="5"/>
+      <c r="T1028" s="5"/>
+      <c r="U1028" s="5"/>
+      <c r="V1028" s="5"/>
+      <c r="W1028" s="5"/>
+      <c r="X1028" s="5"/>
+      <c r="Y1028" s="5"/>
+      <c r="Z1028" s="5"/>
+    </row>
+    <row r="1029" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1029" s="5"/>
+      <c r="B1029" s="5"/>
+      <c r="C1029" s="5"/>
+      <c r="D1029" s="5"/>
+      <c r="E1029" s="5"/>
+      <c r="F1029" s="5"/>
+      <c r="G1029" s="5"/>
+      <c r="H1029" s="5"/>
+      <c r="I1029" s="5"/>
+      <c r="J1029" s="5"/>
+      <c r="K1029" s="5"/>
+      <c r="L1029" s="5"/>
+      <c r="M1029" s="5"/>
+      <c r="N1029" s="5"/>
+      <c r="O1029" s="5"/>
+      <c r="P1029" s="5"/>
+      <c r="Q1029" s="5"/>
+      <c r="R1029" s="5"/>
+      <c r="S1029" s="5"/>
+      <c r="T1029" s="5"/>
+      <c r="U1029" s="5"/>
+      <c r="V1029" s="5"/>
+      <c r="W1029" s="5"/>
+      <c r="X1029" s="5"/>
+      <c r="Y1029" s="5"/>
+      <c r="Z1029" s="5"/>
+    </row>
+    <row r="1030" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1030" s="5"/>
+      <c r="B1030" s="5"/>
+      <c r="C1030" s="5"/>
+      <c r="D1030" s="5"/>
+      <c r="E1030" s="5"/>
+      <c r="F1030" s="5"/>
+      <c r="G1030" s="5"/>
+      <c r="H1030" s="5"/>
+      <c r="I1030" s="5"/>
+      <c r="J1030" s="5"/>
+      <c r="K1030" s="5"/>
+      <c r="L1030" s="5"/>
+      <c r="M1030" s="5"/>
+      <c r="N1030" s="5"/>
+      <c r="O1030" s="5"/>
+      <c r="P1030" s="5"/>
+      <c r="Q1030" s="5"/>
+      <c r="R1030" s="5"/>
+      <c r="S1030" s="5"/>
+      <c r="T1030" s="5"/>
+      <c r="U1030" s="5"/>
+      <c r="V1030" s="5"/>
+      <c r="W1030" s="5"/>
+      <c r="X1030" s="5"/>
+      <c r="Y1030" s="5"/>
+      <c r="Z1030" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28992,161 +30569,161 @@
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="2:6">
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="2:6">
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="2:6">
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>

--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -117,17 +117,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>một lần chơi được tính từ thời điểm vào (mở bàn) -&gt; thời điểm ra (đóng bàn)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>một lần chơi tương ứng với một hóa đơn của hội viên đó</t>
     </r>
   </si>
   <si>
@@ -167,21 +157,16 @@
     <t>+ Tìm kiếm bàn</t>
   </si>
   <si>
-    <r>
-      <t>* NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Nhân viên tạo hóa đơn thì nhân viên khác không thể thực hiện thay đổi trên hóa đơn đó (các thay đổi như: hội viên, mặt hàng, xác nhận đã thanh toán, tính tiền bàn, trạng thái,...) </t>
-    </r>
+    <t xml:space="preserve">- Nhân viên tạo hóa đơn thì nhân viên khác không thể thực hiện thay đổi trên hóa đơn đó (các thay đổi như: hội viên, mặt hàng, xác nhận đã thanh toán, tính tiền bàn, trạng thái,...) </t>
   </si>
   <si>
-    <t>- Trạng thái hóa đơn bao gồm: đã thanh toán và chưa thanh toán</t>
+    <t>+ Trạng thái hóa đơn bao gồm: đã thanh toán và chưa thanh toán</t>
+  </si>
+  <si>
+    <t>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông này vẫn có thể tiếp tục được cập nhật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Chỉ có thể xác nhận đã thanh toán cho một hóa đơn nếu hóa đơn đó đã chơi xong (khách hàng đã ngừng chơi) </t>
   </si>
   <si>
     <t>- Chức năng của Admin:</t>
@@ -196,11 +181,11 @@
     <t>. Xem hóa đơn mới nhất của bàn     | -&gt; cập nhật hóa đơn (hội viên, mặt hàng), xác nhận hóa đơn đã thanh toán</t>
   </si>
   <si>
-    <t>. Xem danh sách hóa đơn của minh |</t>
+    <t>. Xem danh sách hóa đơn của mình |</t>
   </si>
   <si>
     <r>
-      <t>* NOTE:</t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -209,7 +194,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Admin có thể thay đổi hóa đơn của bất kỳ ai</t>
+      <t>Admin có thể thay đổi hóa đơn của bất kỳ ai</t>
     </r>
   </si>
   <si>
@@ -295,6 +280,33 @@
   </si>
   <si>
     <t>- Nếu số giờ chơi của hội viên &gt;= số giờ chơi của một cấp độ và không &gt;= số giờ chơi của cấp độ nào nữa thì hội viên sẽ đạt được cấp độ đó</t>
+  </si>
+  <si>
+    <t>- Mỗi cấp độ hội viên sẽ có một mức ưu đãi nhất định (VD: cấp độ "đồng" tương ứng giảm 5%/tổng hóa đơn, "bạc" - 10%/tổng hóa đơn,...)</t>
+  </si>
+  <si>
+    <t>- Quản lý hội viên</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách hội viên</t>
+  </si>
+  <si>
+    <t>+ Lock tài khoản hội viên</t>
+  </si>
+  <si>
+    <t>+ Unlock tài khoản hội viên</t>
+  </si>
+  <si>
+    <t>- Hội viên bị lock sẽ bị vô hiệu hóa trên hệ thống (Không thể đăng nhập, không tạo hóa đơn cho hội viên này,...), tức là xem như không có trên hệ thống</t>
+  </si>
+  <si>
+    <t>- Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>+ Xem danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>+ Thêm nhân viên</t>
   </si>
   <si>
     <t>- Kỹ thuật:</t>
@@ -1555,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1030"/>
+  <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -2702,7 +2714,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2731,10 +2743,10 @@
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="12" t="s">
-        <v>33</v>
+      <c r="D41" s="12" t="s">
+        <v>32</v>
       </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2759,12 +2771,12 @@
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="1:26">
       <c r="A42" s="5"/>
-      <c r="B42" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2787,13 +2799,13 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" customHeight="1" spans="1:26">
+    <row r="43" ht="14.25" customHeight="1" spans="1:26">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="12" t="s">
-        <v>35</v>
+      <c r="C43" s="5"/>
+      <c r="D43" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2817,12 +2829,12 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" customHeight="1" spans="1:26">
+    <row r="44" ht="14.25" customHeight="1" spans="1:26">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2847,13 +2859,13 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" customHeight="1" spans="1:26">
+    <row r="45" ht="14.25" customHeight="1" spans="1:26">
       <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2880,11 +2892,11 @@
     <row r="46" customHeight="1" spans="1:26">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="C46" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2911,10 +2923,10 @@
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>38</v>
+      <c r="D47" s="12" t="s">
+        <v>26</v>
       </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -2942,7 +2954,7 @@
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2971,10 +2983,10 @@
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="12" t="s">
-        <v>31</v>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>39</v>
       </c>
-      <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3001,10 +3013,10 @@
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="11" t="s">
-        <v>39</v>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3030,10 +3042,10 @@
     <row r="51" customHeight="1" spans="1:26">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="12" t="s">
-        <v>40</v>
+      <c r="C51" s="5"/>
+      <c r="D51" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3062,7 +3074,7 @@
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -3091,8 +3103,8 @@
       <c r="A53" s="5"/>
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="12" t="s">
-        <v>42</v>
+      <c r="D53" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -3121,8 +3133,8 @@
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="12" t="s">
-        <v>43</v>
+      <c r="D54" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -3151,8 +3163,9 @@
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="12" t="s">
-        <v>44</v>
+      <c r="D55" s="12" t="str">
+        <f>D43</f>
+        <v>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông này vẫn có thể tiếp tục được cập nhật</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3181,8 +3194,9 @@
       <c r="A56" s="5"/>
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="12" t="s">
-        <v>45</v>
+      <c r="D56" s="12" t="str">
+        <f>D44</f>
+        <v>- Chỉ có thể xác nhận đã thanh toán cho một hóa đơn nếu hóa đơn đó đã chơi xong (khách hàng đã ngừng chơi) </v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -3210,10 +3224,10 @@
     <row r="57" customHeight="1" spans="1:26">
       <c r="A57" s="5"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="11" t="s">
-        <v>22</v>
+      <c r="C57" s="12" t="s">
+        <v>42</v>
       </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -3241,10 +3255,10 @@
       <c r="A58" s="5"/>
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="12" t="s">
-        <v>46</v>
+      <c r="D58" s="12" t="s">
+        <v>43</v>
       </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -3271,10 +3285,10 @@
       <c r="A59" s="5"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="12" t="s">
-        <v>47</v>
+      <c r="D59" s="12" t="s">
+        <v>44</v>
       </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3300,10 +3314,10 @@
     <row r="60" customHeight="1" spans="1:26">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="12" t="s">
-        <v>48</v>
+      <c r="C60" s="5"/>
+      <c r="D60" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -3332,7 +3346,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3362,7 +3376,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3391,8 +3405,8 @@
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="12" t="s">
-        <v>51</v>
+      <c r="D63" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3421,10 +3435,10 @@
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="11" t="s">
-        <v>22</v>
+      <c r="D64" s="5"/>
+      <c r="E64" s="12" t="s">
+        <v>48</v>
       </c>
-      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3453,7 +3467,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -3480,11 +3494,11 @@
     <row r="66" customHeight="1" spans="1:26">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3510,10 +3524,10 @@
     <row r="67" customHeight="1" spans="1:26">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="12" t="s">
-        <v>54</v>
+      <c r="C67" s="5"/>
+      <c r="D67" s="12" t="s">
+        <v>51</v>
       </c>
-      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -3542,7 +3556,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3572,7 +3586,7 @@
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -3601,8 +3615,8 @@
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="12" t="s">
-        <v>57</v>
+      <c r="D70" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3631,10 +3645,10 @@
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="12" t="s">
-        <v>58</v>
+      <c r="D71" s="5"/>
+      <c r="E71" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -3661,10 +3675,10 @@
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="12" t="s">
-        <v>59</v>
+      <c r="D72" s="5"/>
+      <c r="E72" s="12" t="s">
+        <v>55</v>
       </c>
-      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3690,10 +3704,10 @@
     <row r="73" customHeight="1" spans="1:26">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="11" t="s">
-        <v>22</v>
+      <c r="C73" s="12" t="s">
+        <v>56</v>
       </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3721,10 +3735,10 @@
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="12" t="s">
-        <v>60</v>
+      <c r="D74" s="12" t="s">
+        <v>57</v>
       </c>
+      <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3750,10 +3764,10 @@
     <row r="75" customHeight="1" spans="1:26">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="12" t="s">
-        <v>61</v>
+      <c r="C75" s="5"/>
+      <c r="D75" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -3782,7 +3796,7 @@
       <c r="B76" s="7"/>
       <c r="C76" s="5"/>
       <c r="D76" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3812,7 +3826,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="5"/>
       <c r="D77" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3842,7 +3856,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="5"/>
       <c r="D78" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -3871,8 +3885,8 @@
       <c r="A79" s="5"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="12" t="s">
-        <v>65</v>
+      <c r="D79" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3901,10 +3915,10 @@
       <c r="A80" s="5"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="12" t="s">
-        <v>22</v>
+      <c r="D80" s="5"/>
+      <c r="E80" s="12" t="s">
+        <v>62</v>
       </c>
-      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -3930,11 +3944,11 @@
     <row r="81" customHeight="1" spans="1:26">
       <c r="A81" s="5"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -3961,10 +3975,10 @@
       <c r="A82" s="5"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="12" t="s">
-        <v>67</v>
+      <c r="D82" s="12" t="s">
+        <v>64</v>
       </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3989,11 +4003,11 @@
     </row>
     <row r="83" customHeight="1" spans="1:26">
       <c r="A83" s="5"/>
-      <c r="B83" s="11" t="s">
-        <v>68</v>
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="12" t="s">
+        <v>65</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -4017,13 +4031,13 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1" spans="1:26">
+    <row r="84" customHeight="1" spans="1:26">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5" t="s">
-        <v>69</v>
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="12" t="s">
+        <v>66</v>
       </c>
-      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4047,13 +4061,13 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1" spans="1:26">
+    <row r="85" customHeight="1" spans="1:26">
       <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
-        <v>70</v>
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="12" t="s">
+        <v>67</v>
       </c>
-      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -4077,11 +4091,13 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1" spans="1:26">
+    <row r="86" customHeight="1" spans="1:26">
       <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -4105,12 +4121,14 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1" spans="1:26">
+    <row r="87" customHeight="1" spans="1:26">
       <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -4133,12 +4151,14 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1" spans="1:26">
+    <row r="88" customHeight="1" spans="1:26">
       <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -4161,12 +4181,14 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1" spans="1:26">
+    <row r="89" customHeight="1" spans="1:26">
       <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -4189,10 +4211,12 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1" spans="1:26">
+    <row r="90" customHeight="1" spans="1:26">
       <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -4217,11 +4241,13 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1" spans="1:26">
+    <row r="91" customHeight="1" spans="1:26">
       <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -4245,11 +4271,13 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1" spans="1:26">
+    <row r="92" customHeight="1" spans="1:26">
       <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -4273,11 +4301,13 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1" spans="1:26">
+    <row r="93" customHeight="1" spans="1:26">
       <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -4301,11 +4331,13 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1" spans="1:26">
+    <row r="94" customHeight="1" spans="1:26">
       <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -4329,12 +4361,14 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1" spans="1:26">
+    <row r="95" customHeight="1" spans="1:26">
       <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4357,10 +4391,12 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1" spans="1:26">
+    <row r="96" customHeight="1" spans="1:26">
       <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4385,11 +4421,13 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1" spans="1:26">
+    <row r="97" customHeight="1" spans="1:26">
       <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -4413,11 +4451,13 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1" spans="1:26">
+    <row r="98" customHeight="1" spans="1:26">
       <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -4441,9 +4481,11 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1" spans="1:26">
+    <row r="99" customHeight="1" spans="1:26">
       <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4472,7 +4514,9 @@
     <row r="100" ht="14.25" customHeight="1" spans="1:26">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4500,7 +4544,9 @@
     <row r="101" ht="14.25" customHeight="1" spans="1:26">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -30536,6 +30582,454 @@
       <c r="X1030" s="5"/>
       <c r="Y1030" s="5"/>
       <c r="Z1030" s="5"/>
+    </row>
+    <row r="1031" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1031" s="5"/>
+      <c r="B1031" s="5"/>
+      <c r="C1031" s="5"/>
+      <c r="D1031" s="5"/>
+      <c r="E1031" s="5"/>
+      <c r="F1031" s="5"/>
+      <c r="G1031" s="5"/>
+      <c r="H1031" s="5"/>
+      <c r="I1031" s="5"/>
+      <c r="J1031" s="5"/>
+      <c r="K1031" s="5"/>
+      <c r="L1031" s="5"/>
+      <c r="M1031" s="5"/>
+      <c r="N1031" s="5"/>
+      <c r="O1031" s="5"/>
+      <c r="P1031" s="5"/>
+      <c r="Q1031" s="5"/>
+      <c r="R1031" s="5"/>
+      <c r="S1031" s="5"/>
+      <c r="T1031" s="5"/>
+      <c r="U1031" s="5"/>
+      <c r="V1031" s="5"/>
+      <c r="W1031" s="5"/>
+      <c r="X1031" s="5"/>
+      <c r="Y1031" s="5"/>
+      <c r="Z1031" s="5"/>
+    </row>
+    <row r="1032" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1032" s="5"/>
+      <c r="B1032" s="5"/>
+      <c r="C1032" s="5"/>
+      <c r="D1032" s="5"/>
+      <c r="E1032" s="5"/>
+      <c r="F1032" s="5"/>
+      <c r="G1032" s="5"/>
+      <c r="H1032" s="5"/>
+      <c r="I1032" s="5"/>
+      <c r="J1032" s="5"/>
+      <c r="K1032" s="5"/>
+      <c r="L1032" s="5"/>
+      <c r="M1032" s="5"/>
+      <c r="N1032" s="5"/>
+      <c r="O1032" s="5"/>
+      <c r="P1032" s="5"/>
+      <c r="Q1032" s="5"/>
+      <c r="R1032" s="5"/>
+      <c r="S1032" s="5"/>
+      <c r="T1032" s="5"/>
+      <c r="U1032" s="5"/>
+      <c r="V1032" s="5"/>
+      <c r="W1032" s="5"/>
+      <c r="X1032" s="5"/>
+      <c r="Y1032" s="5"/>
+      <c r="Z1032" s="5"/>
+    </row>
+    <row r="1033" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1033" s="5"/>
+      <c r="B1033" s="5"/>
+      <c r="C1033" s="5"/>
+      <c r="D1033" s="5"/>
+      <c r="E1033" s="5"/>
+      <c r="F1033" s="5"/>
+      <c r="G1033" s="5"/>
+      <c r="H1033" s="5"/>
+      <c r="I1033" s="5"/>
+      <c r="J1033" s="5"/>
+      <c r="K1033" s="5"/>
+      <c r="L1033" s="5"/>
+      <c r="M1033" s="5"/>
+      <c r="N1033" s="5"/>
+      <c r="O1033" s="5"/>
+      <c r="P1033" s="5"/>
+      <c r="Q1033" s="5"/>
+      <c r="R1033" s="5"/>
+      <c r="S1033" s="5"/>
+      <c r="T1033" s="5"/>
+      <c r="U1033" s="5"/>
+      <c r="V1033" s="5"/>
+      <c r="W1033" s="5"/>
+      <c r="X1033" s="5"/>
+      <c r="Y1033" s="5"/>
+      <c r="Z1033" s="5"/>
+    </row>
+    <row r="1034" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1034" s="5"/>
+      <c r="B1034" s="5"/>
+      <c r="C1034" s="5"/>
+      <c r="D1034" s="5"/>
+      <c r="E1034" s="5"/>
+      <c r="F1034" s="5"/>
+      <c r="G1034" s="5"/>
+      <c r="H1034" s="5"/>
+      <c r="I1034" s="5"/>
+      <c r="J1034" s="5"/>
+      <c r="K1034" s="5"/>
+      <c r="L1034" s="5"/>
+      <c r="M1034" s="5"/>
+      <c r="N1034" s="5"/>
+      <c r="O1034" s="5"/>
+      <c r="P1034" s="5"/>
+      <c r="Q1034" s="5"/>
+      <c r="R1034" s="5"/>
+      <c r="S1034" s="5"/>
+      <c r="T1034" s="5"/>
+      <c r="U1034" s="5"/>
+      <c r="V1034" s="5"/>
+      <c r="W1034" s="5"/>
+      <c r="X1034" s="5"/>
+      <c r="Y1034" s="5"/>
+      <c r="Z1034" s="5"/>
+    </row>
+    <row r="1035" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1035" s="5"/>
+      <c r="B1035" s="5"/>
+      <c r="C1035" s="5"/>
+      <c r="D1035" s="5"/>
+      <c r="E1035" s="5"/>
+      <c r="F1035" s="5"/>
+      <c r="G1035" s="5"/>
+      <c r="H1035" s="5"/>
+      <c r="I1035" s="5"/>
+      <c r="J1035" s="5"/>
+      <c r="K1035" s="5"/>
+      <c r="L1035" s="5"/>
+      <c r="M1035" s="5"/>
+      <c r="N1035" s="5"/>
+      <c r="O1035" s="5"/>
+      <c r="P1035" s="5"/>
+      <c r="Q1035" s="5"/>
+      <c r="R1035" s="5"/>
+      <c r="S1035" s="5"/>
+      <c r="T1035" s="5"/>
+      <c r="U1035" s="5"/>
+      <c r="V1035" s="5"/>
+      <c r="W1035" s="5"/>
+      <c r="X1035" s="5"/>
+      <c r="Y1035" s="5"/>
+      <c r="Z1035" s="5"/>
+    </row>
+    <row r="1036" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1036" s="5"/>
+      <c r="B1036" s="5"/>
+      <c r="C1036" s="5"/>
+      <c r="D1036" s="5"/>
+      <c r="E1036" s="5"/>
+      <c r="F1036" s="5"/>
+      <c r="G1036" s="5"/>
+      <c r="H1036" s="5"/>
+      <c r="I1036" s="5"/>
+      <c r="J1036" s="5"/>
+      <c r="K1036" s="5"/>
+      <c r="L1036" s="5"/>
+      <c r="M1036" s="5"/>
+      <c r="N1036" s="5"/>
+      <c r="O1036" s="5"/>
+      <c r="P1036" s="5"/>
+      <c r="Q1036" s="5"/>
+      <c r="R1036" s="5"/>
+      <c r="S1036" s="5"/>
+      <c r="T1036" s="5"/>
+      <c r="U1036" s="5"/>
+      <c r="V1036" s="5"/>
+      <c r="W1036" s="5"/>
+      <c r="X1036" s="5"/>
+      <c r="Y1036" s="5"/>
+      <c r="Z1036" s="5"/>
+    </row>
+    <row r="1037" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1037" s="5"/>
+      <c r="B1037" s="5"/>
+      <c r="C1037" s="5"/>
+      <c r="D1037" s="5"/>
+      <c r="E1037" s="5"/>
+      <c r="F1037" s="5"/>
+      <c r="G1037" s="5"/>
+      <c r="H1037" s="5"/>
+      <c r="I1037" s="5"/>
+      <c r="J1037" s="5"/>
+      <c r="K1037" s="5"/>
+      <c r="L1037" s="5"/>
+      <c r="M1037" s="5"/>
+      <c r="N1037" s="5"/>
+      <c r="O1037" s="5"/>
+      <c r="P1037" s="5"/>
+      <c r="Q1037" s="5"/>
+      <c r="R1037" s="5"/>
+      <c r="S1037" s="5"/>
+      <c r="T1037" s="5"/>
+      <c r="U1037" s="5"/>
+      <c r="V1037" s="5"/>
+      <c r="W1037" s="5"/>
+      <c r="X1037" s="5"/>
+      <c r="Y1037" s="5"/>
+      <c r="Z1037" s="5"/>
+    </row>
+    <row r="1038" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1038" s="5"/>
+      <c r="B1038" s="5"/>
+      <c r="C1038" s="5"/>
+      <c r="D1038" s="5"/>
+      <c r="E1038" s="5"/>
+      <c r="F1038" s="5"/>
+      <c r="G1038" s="5"/>
+      <c r="H1038" s="5"/>
+      <c r="I1038" s="5"/>
+      <c r="J1038" s="5"/>
+      <c r="K1038" s="5"/>
+      <c r="L1038" s="5"/>
+      <c r="M1038" s="5"/>
+      <c r="N1038" s="5"/>
+      <c r="O1038" s="5"/>
+      <c r="P1038" s="5"/>
+      <c r="Q1038" s="5"/>
+      <c r="R1038" s="5"/>
+      <c r="S1038" s="5"/>
+      <c r="T1038" s="5"/>
+      <c r="U1038" s="5"/>
+      <c r="V1038" s="5"/>
+      <c r="W1038" s="5"/>
+      <c r="X1038" s="5"/>
+      <c r="Y1038" s="5"/>
+      <c r="Z1038" s="5"/>
+    </row>
+    <row r="1039" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1039" s="5"/>
+      <c r="B1039" s="5"/>
+      <c r="C1039" s="5"/>
+      <c r="D1039" s="5"/>
+      <c r="E1039" s="5"/>
+      <c r="F1039" s="5"/>
+      <c r="G1039" s="5"/>
+      <c r="H1039" s="5"/>
+      <c r="I1039" s="5"/>
+      <c r="J1039" s="5"/>
+      <c r="K1039" s="5"/>
+      <c r="L1039" s="5"/>
+      <c r="M1039" s="5"/>
+      <c r="N1039" s="5"/>
+      <c r="O1039" s="5"/>
+      <c r="P1039" s="5"/>
+      <c r="Q1039" s="5"/>
+      <c r="R1039" s="5"/>
+      <c r="S1039" s="5"/>
+      <c r="T1039" s="5"/>
+      <c r="U1039" s="5"/>
+      <c r="V1039" s="5"/>
+      <c r="W1039" s="5"/>
+      <c r="X1039" s="5"/>
+      <c r="Y1039" s="5"/>
+      <c r="Z1039" s="5"/>
+    </row>
+    <row r="1040" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1040" s="5"/>
+      <c r="B1040" s="5"/>
+      <c r="C1040" s="5"/>
+      <c r="D1040" s="5"/>
+      <c r="E1040" s="5"/>
+      <c r="F1040" s="5"/>
+      <c r="G1040" s="5"/>
+      <c r="H1040" s="5"/>
+      <c r="I1040" s="5"/>
+      <c r="J1040" s="5"/>
+      <c r="K1040" s="5"/>
+      <c r="L1040" s="5"/>
+      <c r="M1040" s="5"/>
+      <c r="N1040" s="5"/>
+      <c r="O1040" s="5"/>
+      <c r="P1040" s="5"/>
+      <c r="Q1040" s="5"/>
+      <c r="R1040" s="5"/>
+      <c r="S1040" s="5"/>
+      <c r="T1040" s="5"/>
+      <c r="U1040" s="5"/>
+      <c r="V1040" s="5"/>
+      <c r="W1040" s="5"/>
+      <c r="X1040" s="5"/>
+      <c r="Y1040" s="5"/>
+      <c r="Z1040" s="5"/>
+    </row>
+    <row r="1041" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1041" s="5"/>
+      <c r="B1041" s="5"/>
+      <c r="C1041" s="5"/>
+      <c r="D1041" s="5"/>
+      <c r="E1041" s="5"/>
+      <c r="F1041" s="5"/>
+      <c r="G1041" s="5"/>
+      <c r="H1041" s="5"/>
+      <c r="I1041" s="5"/>
+      <c r="J1041" s="5"/>
+      <c r="K1041" s="5"/>
+      <c r="L1041" s="5"/>
+      <c r="M1041" s="5"/>
+      <c r="N1041" s="5"/>
+      <c r="O1041" s="5"/>
+      <c r="P1041" s="5"/>
+      <c r="Q1041" s="5"/>
+      <c r="R1041" s="5"/>
+      <c r="S1041" s="5"/>
+      <c r="T1041" s="5"/>
+      <c r="U1041" s="5"/>
+      <c r="V1041" s="5"/>
+      <c r="W1041" s="5"/>
+      <c r="X1041" s="5"/>
+      <c r="Y1041" s="5"/>
+      <c r="Z1041" s="5"/>
+    </row>
+    <row r="1042" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1042" s="5"/>
+      <c r="B1042" s="5"/>
+      <c r="C1042" s="5"/>
+      <c r="D1042" s="5"/>
+      <c r="E1042" s="5"/>
+      <c r="F1042" s="5"/>
+      <c r="G1042" s="5"/>
+      <c r="H1042" s="5"/>
+      <c r="I1042" s="5"/>
+      <c r="J1042" s="5"/>
+      <c r="K1042" s="5"/>
+      <c r="L1042" s="5"/>
+      <c r="M1042" s="5"/>
+      <c r="N1042" s="5"/>
+      <c r="O1042" s="5"/>
+      <c r="P1042" s="5"/>
+      <c r="Q1042" s="5"/>
+      <c r="R1042" s="5"/>
+      <c r="S1042" s="5"/>
+      <c r="T1042" s="5"/>
+      <c r="U1042" s="5"/>
+      <c r="V1042" s="5"/>
+      <c r="W1042" s="5"/>
+      <c r="X1042" s="5"/>
+      <c r="Y1042" s="5"/>
+      <c r="Z1042" s="5"/>
+    </row>
+    <row r="1043" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1043" s="5"/>
+      <c r="B1043" s="5"/>
+      <c r="C1043" s="5"/>
+      <c r="D1043" s="5"/>
+      <c r="E1043" s="5"/>
+      <c r="F1043" s="5"/>
+      <c r="G1043" s="5"/>
+      <c r="H1043" s="5"/>
+      <c r="I1043" s="5"/>
+      <c r="J1043" s="5"/>
+      <c r="K1043" s="5"/>
+      <c r="L1043" s="5"/>
+      <c r="M1043" s="5"/>
+      <c r="N1043" s="5"/>
+      <c r="O1043" s="5"/>
+      <c r="P1043" s="5"/>
+      <c r="Q1043" s="5"/>
+      <c r="R1043" s="5"/>
+      <c r="S1043" s="5"/>
+      <c r="T1043" s="5"/>
+      <c r="U1043" s="5"/>
+      <c r="V1043" s="5"/>
+      <c r="W1043" s="5"/>
+      <c r="X1043" s="5"/>
+      <c r="Y1043" s="5"/>
+      <c r="Z1043" s="5"/>
+    </row>
+    <row r="1044" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1044" s="5"/>
+      <c r="B1044" s="5"/>
+      <c r="C1044" s="5"/>
+      <c r="D1044" s="5"/>
+      <c r="E1044" s="5"/>
+      <c r="F1044" s="5"/>
+      <c r="G1044" s="5"/>
+      <c r="H1044" s="5"/>
+      <c r="I1044" s="5"/>
+      <c r="J1044" s="5"/>
+      <c r="K1044" s="5"/>
+      <c r="L1044" s="5"/>
+      <c r="M1044" s="5"/>
+      <c r="N1044" s="5"/>
+      <c r="O1044" s="5"/>
+      <c r="P1044" s="5"/>
+      <c r="Q1044" s="5"/>
+      <c r="R1044" s="5"/>
+      <c r="S1044" s="5"/>
+      <c r="T1044" s="5"/>
+      <c r="U1044" s="5"/>
+      <c r="V1044" s="5"/>
+      <c r="W1044" s="5"/>
+      <c r="X1044" s="5"/>
+      <c r="Y1044" s="5"/>
+      <c r="Z1044" s="5"/>
+    </row>
+    <row r="1045" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1045" s="5"/>
+      <c r="B1045" s="5"/>
+      <c r="C1045" s="5"/>
+      <c r="D1045" s="5"/>
+      <c r="E1045" s="5"/>
+      <c r="F1045" s="5"/>
+      <c r="G1045" s="5"/>
+      <c r="H1045" s="5"/>
+      <c r="I1045" s="5"/>
+      <c r="J1045" s="5"/>
+      <c r="K1045" s="5"/>
+      <c r="L1045" s="5"/>
+      <c r="M1045" s="5"/>
+      <c r="N1045" s="5"/>
+      <c r="O1045" s="5"/>
+      <c r="P1045" s="5"/>
+      <c r="Q1045" s="5"/>
+      <c r="R1045" s="5"/>
+      <c r="S1045" s="5"/>
+      <c r="T1045" s="5"/>
+      <c r="U1045" s="5"/>
+      <c r="V1045" s="5"/>
+      <c r="W1045" s="5"/>
+      <c r="X1045" s="5"/>
+      <c r="Y1045" s="5"/>
+      <c r="Z1045" s="5"/>
+    </row>
+    <row r="1046" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1046" s="5"/>
+      <c r="B1046" s="5"/>
+      <c r="C1046" s="5"/>
+      <c r="D1046" s="5"/>
+      <c r="E1046" s="5"/>
+      <c r="F1046" s="5"/>
+      <c r="G1046" s="5"/>
+      <c r="H1046" s="5"/>
+      <c r="I1046" s="5"/>
+      <c r="J1046" s="5"/>
+      <c r="K1046" s="5"/>
+      <c r="L1046" s="5"/>
+      <c r="M1046" s="5"/>
+      <c r="N1046" s="5"/>
+      <c r="O1046" s="5"/>
+      <c r="P1046" s="5"/>
+      <c r="Q1046" s="5"/>
+      <c r="R1046" s="5"/>
+      <c r="S1046" s="5"/>
+      <c r="T1046" s="5"/>
+      <c r="U1046" s="5"/>
+      <c r="V1046" s="5"/>
+      <c r="W1046" s="5"/>
+      <c r="X1046" s="5"/>
+      <c r="Y1046" s="5"/>
+      <c r="Z1046" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30569,161 +31063,161 @@
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="2:6">
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="2:6">
+      <c r="B13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B12" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="2:6">
+      <c r="B14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>74</v>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>74</v>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="2:6">
+      <c r="B15" s="4" t="s">
+        <v>103</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="2:6">
       <c r="B16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>

--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>- Chức năng xem danh sách bàn (bao gồm cả bàn đã bị lock) - thuộc nhóm chức năng "</t>
     </r>
     <r>
@@ -211,6 +217,9 @@
     </r>
   </si>
   <si>
+    <t>+ Mở bàn (bàn chưa bị lock) - bắt đầu tính tiền bàn</t>
+  </si>
+  <si>
     <t>+ Xem danh sách hóa đơn của một bàn              |</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>. Xem danh sách hóa đơn của mình |</t>
+  </si>
+  <si>
+    <t>+ Đóng bàn (bàn chưa bị lock) - tính tiền bàn</t>
   </si>
   <si>
     <r>
@@ -260,6 +272,12 @@
   </si>
   <si>
     <t>- Bàn bị lock không thể được đưa vào sử dụng</t>
+  </si>
+  <si>
+    <t>- Không thể lock bàn nếu bàn đang mở</t>
+  </si>
+  <si>
+    <t>- Bàn đã bị lock vẫn có thể cập nhật hóa đơn cho bàn và xác nhận hóa đơn của bàn đã thanh toán</t>
   </si>
   <si>
     <t>- Sau khi unlock thì bàn có thể được sử dụng bình thường</t>
@@ -1540,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1071"/>
+  <dimension ref="A1:Z1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -3071,7 +3089,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3101,7 +3119,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3132,7 +3150,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3162,7 +3180,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3191,7 +3209,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3281,7 +3299,7 @@
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3402,7 +3420,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3433,7 +3451,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3463,7 +3481,7 @@
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3493,7 +3511,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3523,7 +3541,7 @@
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3553,7 +3571,7 @@
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3614,7 +3632,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3644,7 +3662,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3673,7 +3691,9 @@
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3699,11 +3719,11 @@
     <row r="74" customHeight="1" spans="1:26">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="8" t="s">
-        <v>53</v>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="8" t="s">
+        <v>56</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3730,9 +3750,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3759,10 +3777,10 @@
     <row r="76" customHeight="1" spans="1:26">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="8" t="s">
-        <v>55</v>
+      <c r="C76" s="8" t="s">
+        <v>57</v>
       </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3791,7 +3809,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3821,7 +3839,7 @@
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3850,8 +3868,8 @@
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="7" t="s">
-        <v>24</v>
+      <c r="D79" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3880,10 +3898,10 @@
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="8" t="s">
-        <v>58</v>
+      <c r="D80" s="8" t="s">
+        <v>61</v>
       </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3910,10 +3928,10 @@
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="8" t="s">
-        <v>59</v>
+      <c r="D81" s="7" t="s">
+        <v>24</v>
       </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3941,7 +3959,9 @@
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -3967,11 +3987,11 @@
     <row r="83" customHeight="1" spans="1:26">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="8" t="s">
-        <v>60</v>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="8" t="s">
+        <v>63</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -3998,9 +4018,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4027,10 +4045,10 @@
     <row r="85" customHeight="1" spans="1:26">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="8" t="s">
-        <v>62</v>
+      <c r="C85" s="8" t="s">
+        <v>64</v>
       </c>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4059,7 +4077,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4089,7 +4107,7 @@
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4119,7 +4137,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4149,7 +4167,7 @@
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4178,8 +4196,8 @@
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="7" t="s">
-        <v>24</v>
+      <c r="D90" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4208,10 +4226,10 @@
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="8" t="s">
-        <v>67</v>
+      <c r="D91" s="8" t="s">
+        <v>70</v>
       </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -4238,7 +4256,9 @@
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4265,11 +4285,11 @@
     <row r="93" customHeight="1" spans="1:26">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="8" t="s">
-        <v>68</v>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="8" t="s">
+        <v>71</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -4296,9 +4316,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4325,10 +4343,10 @@
     <row r="95" customHeight="1" spans="1:26">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="8" t="s">
-        <v>70</v>
+      <c r="C95" s="8" t="s">
+        <v>72</v>
       </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4357,7 +4375,7 @@
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4387,7 +4405,7 @@
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -4417,7 +4435,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -4446,8 +4464,8 @@
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="7" t="s">
-        <v>24</v>
+      <c r="D99" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4476,10 +4494,10 @@
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="8" t="s">
-        <v>74</v>
+      <c r="D100" s="8" t="s">
+        <v>77</v>
       </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4506,10 +4524,10 @@
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="8" t="s">
-        <v>75</v>
+      <c r="D101" s="7" t="s">
+        <v>24</v>
       </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4538,7 +4556,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4567,7 +4585,9 @@
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4593,11 +4613,11 @@
     <row r="104" customHeight="1" spans="1:26">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="8" t="s">
-        <v>77</v>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="8" t="s">
+        <v>80</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4624,9 +4644,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4653,10 +4671,10 @@
     <row r="106" customHeight="1" spans="1:26">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="8" t="s">
-        <v>79</v>
+      <c r="C106" s="8" t="s">
+        <v>81</v>
       </c>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4685,7 +4703,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4715,7 +4733,7 @@
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -4744,8 +4762,8 @@
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="7" t="s">
-        <v>24</v>
+      <c r="D109" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -4774,10 +4792,10 @@
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="8" t="s">
-        <v>82</v>
+      <c r="D110" s="8" t="s">
+        <v>85</v>
       </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4804,7 +4822,9 @@
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -4831,11 +4851,11 @@
     <row r="112" customHeight="1" spans="1:26">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="8" t="s">
-        <v>83</v>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="8" t="s">
+        <v>86</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4862,9 +4882,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -4891,10 +4909,10 @@
     <row r="114" customHeight="1" spans="1:26">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="8" t="s">
-        <v>85</v>
+      <c r="C114" s="8" t="s">
+        <v>87</v>
       </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4923,7 +4941,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
       <c r="D115" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4953,7 +4971,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
       <c r="D116" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4983,7 +5001,7 @@
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
       <c r="D117" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5013,7 +5031,7 @@
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
       <c r="D118" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5042,8 +5060,8 @@
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="7" t="s">
-        <v>24</v>
+      <c r="D119" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5072,10 +5090,10 @@
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="8" t="s">
-        <v>90</v>
+      <c r="D120" s="8" t="s">
+        <v>93</v>
       </c>
+      <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -5102,7 +5120,9 @@
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5129,11 +5149,11 @@
     <row r="122" customHeight="1" spans="1:26">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="8" t="s">
-        <v>91</v>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="8" t="s">
+        <v>94</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -5186,10 +5206,10 @@
     </row>
     <row r="124" customHeight="1" spans="1:26">
       <c r="A124" s="1"/>
-      <c r="B124" s="7" t="s">
-        <v>92</v>
+      <c r="B124" s="3"/>
+      <c r="C124" s="8" t="s">
+        <v>95</v>
       </c>
-      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5214,12 +5234,10 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1" spans="1:26">
+    <row r="125" customHeight="1" spans="1:26">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5244,12 +5262,12 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1" spans="1:26">
+    <row r="126" customHeight="1" spans="1:26">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1" t="s">
-        <v>94</v>
+      <c r="B126" s="7" t="s">
+        <v>96</v>
       </c>
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5277,8 +5295,8 @@
     <row r="127" ht="14.25" customHeight="1" spans="1:26">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="8" t="s">
-        <v>95</v>
+      <c r="C127" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5307,7 +5325,9 @@
     <row r="128" ht="14.25" customHeight="1" spans="1:26">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5335,7 +5355,9 @@
     <row r="129" ht="14.25" customHeight="1" spans="1:26">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="C129" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -31736,6 +31758,62 @@
       <c r="Y1071" s="1"/>
       <c r="Z1071" s="1"/>
     </row>
+    <row r="1072" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1072" s="1"/>
+      <c r="B1072" s="1"/>
+      <c r="C1072" s="1"/>
+      <c r="D1072" s="1"/>
+      <c r="E1072" s="1"/>
+      <c r="F1072" s="1"/>
+      <c r="G1072" s="1"/>
+      <c r="H1072" s="1"/>
+      <c r="I1072" s="1"/>
+      <c r="J1072" s="1"/>
+      <c r="K1072" s="1"/>
+      <c r="L1072" s="1"/>
+      <c r="M1072" s="1"/>
+      <c r="N1072" s="1"/>
+      <c r="O1072" s="1"/>
+      <c r="P1072" s="1"/>
+      <c r="Q1072" s="1"/>
+      <c r="R1072" s="1"/>
+      <c r="S1072" s="1"/>
+      <c r="T1072" s="1"/>
+      <c r="U1072" s="1"/>
+      <c r="V1072" s="1"/>
+      <c r="W1072" s="1"/>
+      <c r="X1072" s="1"/>
+      <c r="Y1072" s="1"/>
+      <c r="Z1072" s="1"/>
+    </row>
+    <row r="1073" ht="14.25" customHeight="1" spans="1:26">
+      <c r="A1073" s="1"/>
+      <c r="B1073" s="1"/>
+      <c r="C1073" s="1"/>
+      <c r="D1073" s="1"/>
+      <c r="E1073" s="1"/>
+      <c r="F1073" s="1"/>
+      <c r="G1073" s="1"/>
+      <c r="H1073" s="1"/>
+      <c r="I1073" s="1"/>
+      <c r="J1073" s="1"/>
+      <c r="K1073" s="1"/>
+      <c r="L1073" s="1"/>
+      <c r="M1073" s="1"/>
+      <c r="N1073" s="1"/>
+      <c r="O1073" s="1"/>
+      <c r="P1073" s="1"/>
+      <c r="Q1073" s="1"/>
+      <c r="R1073" s="1"/>
+      <c r="S1073" s="1"/>
+      <c r="T1073" s="1"/>
+      <c r="U1073" s="1"/>
+      <c r="V1073" s="1"/>
+      <c r="W1073" s="1"/>
+      <c r="X1073" s="1"/>
+      <c r="Y1073" s="1"/>
+      <c r="Z1073" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Requirement Outline</t>
   </si>
@@ -298,7 +298,7 @@
     <t>+ Tìm kiếm loại bàn theo tên loại (tương đối)</t>
   </si>
   <si>
-    <t>- Mỗi loại bàn có số tiền/giờ khác nhau</t>
+    <t>- Mỗi loại bàn phải có số tiền/giờ (Số tiền trên mỗi giờ chơi)</t>
   </si>
   <si>
     <t>- Mỗi bàn phải và chỉ thuộc 1 loại bàn</t>
@@ -352,7 +352,10 @@
     <t>- Nếu số giờ chơi của hội viên &gt;= số giờ chơi của một cấp độ và không &gt;= số giờ chơi của cấp độ nào nữa thì hội viên sẽ đạt được cấp độ đó</t>
   </si>
   <si>
-    <t>- Mỗi cấp độ hội viên sẽ có một mức ưu đãi nhất định (VD: cấp độ "đồng" tương ứng giảm 5%/tổng hóa đơn, "bạc" - 10%/tổng hóa đơn,...)</t>
+    <t>- Mỗi cấp độ hội viên sẽ được giảm ?% / tổng hóa đơn (VD: cấp độ "đồng" tương ứng giảm 5%/tổng hóa đơn, "bạc" - 10%/tổng hóa đơn,...)</t>
+  </si>
+  <si>
+    <t>- Cập độ hội viên có số giờ chơi yêu cầu lớn hơn thì sẽ có % giảm giá trên tổng hóa đơn &gt; hơn</t>
   </si>
   <si>
     <t>- Quản lý hội viên</t>
@@ -1560,8 +1563,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -4645,7 +4648,9 @@
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4672,7 +4677,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4703,7 +4708,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4733,7 +4738,7 @@
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -4763,7 +4768,7 @@
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
       <c r="D109" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -4793,7 +4798,7 @@
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
       <c r="D110" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4854,7 +4859,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4910,7 +4915,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4941,7 +4946,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
       <c r="D115" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4971,7 +4976,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
       <c r="D116" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5001,7 +5006,7 @@
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
       <c r="D117" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5031,7 +5036,7 @@
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
       <c r="D118" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5061,7 +5066,7 @@
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
       <c r="D119" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5091,7 +5096,7 @@
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
       <c r="D120" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5152,7 +5157,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -5208,7 +5213,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5265,7 +5270,7 @@
     <row r="126" customHeight="1" spans="1:26">
       <c r="A126" s="1"/>
       <c r="B126" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -5296,7 +5301,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5326,7 +5331,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5356,7 +5361,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>

--- a/docs/RequirementOutline.xlsx
+++ b/docs/RequirementOutline.xlsx
@@ -175,7 +175,7 @@
     <t>+ Trạng thái hóa đơn bao gồm: đã thanh toán và chưa thanh toán</t>
   </si>
   <si>
-    <t>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông này vẫn có thể tiếp tục được cập nhật</t>
+    <t>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông tin này vẫn có thể tiếp tục được cập nhật</t>
   </si>
   <si>
     <t xml:space="preserve">- Chỉ có thể xác nhận đã thanh toán cho một hóa đơn nếu hóa đơn đó đã chơi xong (khách hàng đã ngừng chơi) </t>
@@ -1563,8 +1563,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -3333,7 +3333,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="8" t="str">
         <f>D47</f>
-        <v>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông này vẫn có thể tiếp tục được cập nhật</v>
+        <v>- Khi mở bàn, hóa đơn của bàn sẽ được tạo ra để cập nhật các thông tin trong quá trình khách hàng chơi (hội viên, các mặt hàng), và sau khi đóng bàn (khách hàng ngừng chơi) các thông tin này vẫn có thể tiếp tục được cập nhật</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
